--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{2630C45D-FD86-FD44-B917-8461A07E36E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B75118F-1D38-0046-AA2D-02FFF35CDD2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="259">
   <si>
     <t>Metric Name</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Data Access Monitoring</t>
   </si>
   <si>
-    <t>ERP System Logs (SAP)</t>
-  </si>
-  <si>
     <t>Financial Monitoring, Compliance</t>
   </si>
   <si>
@@ -743,6 +740,105 @@
   </si>
   <si>
     <t>Compliance Requirements</t>
+  </si>
+  <si>
+    <t>Enterprise Resource Planning (ERP) System Logs (SAP)</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Detection Capabilities</t>
+  </si>
+  <si>
+    <t>Ability to detect various threats, such as malware, anomalies, and insider threats using the SIEM.</t>
+  </si>
+  <si>
+    <t>Partially Available</t>
+  </si>
+  <si>
+    <t>SIEM Team</t>
+  </si>
+  <si>
+    <t>Improve detection rules for insider threats</t>
+  </si>
+  <si>
+    <t>Threat Hunting</t>
+  </si>
+  <si>
+    <t>Ability to proactively search for indicators of compromise (IOCs) and unknown threats.</t>
+  </si>
+  <si>
+    <t>Threat Intel Team</t>
+  </si>
+  <si>
+    <t>Increase frequency of threat hunts</t>
+  </si>
+  <si>
+    <t>Threat Detection, Incident Response</t>
+  </si>
+  <si>
+    <t>Custom Dashboards</t>
+  </si>
+  <si>
+    <t>Customizable dashboards to monitor specific activities or use cases.</t>
+  </si>
+  <si>
+    <t>Develop more user-specific dashboards</t>
+  </si>
+  <si>
+    <t>Visibility, Reporting, Compliance</t>
+  </si>
+  <si>
+    <t>Alert Creation</t>
+  </si>
+  <si>
+    <t>Ability to create and manage alerts for suspicious activities detected in logs.</t>
+  </si>
+  <si>
+    <t>SOC Team</t>
+  </si>
+  <si>
+    <t>Refine alert thresholds to reduce false positives</t>
+  </si>
+  <si>
+    <t>Admin Functions</t>
+  </si>
+  <si>
+    <t>Administrative tasks such as user management, log retention, and configuration changes.</t>
+  </si>
+  <si>
+    <t>Streamline user role assignment</t>
+  </si>
+  <si>
+    <t>System Management, Compliance</t>
+  </si>
+  <si>
+    <t>Upkeep</t>
+  </si>
+  <si>
+    <t>Regular maintenance, software updates, and system health checks for the SIEM.</t>
+  </si>
+  <si>
+    <t>SIEM Maintenance Team</t>
+  </si>
+  <si>
+    <t>Automate routine maintenance tasks</t>
+  </si>
+  <si>
+    <t>System Stability, Compliance</t>
+  </si>
+  <si>
+    <t>Threat Intel Feed Search</t>
+  </si>
+  <si>
+    <t>Capability to search for and correlate threat intelligence feeds with internal activity to identify threats.</t>
+  </si>
+  <si>
+    <t>Integrate additional threat feeds</t>
+  </si>
+  <si>
+    <t>Threat Detection, Threat Intelligence</t>
   </si>
 </sst>
 </file>
@@ -1575,13 +1671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -1613,7 +1709,7 @@
         <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>95</v>
@@ -2755,7 +2851,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>170</v>
@@ -2777,7 +2873,7 @@
         <v>109</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>111</v>
@@ -2786,7 +2882,7 @@
         <v>112</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>114</v>
@@ -2803,7 +2899,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>170</v>
@@ -2825,7 +2921,7 @@
         <v>120</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>111</v>
@@ -2834,7 +2930,7 @@
         <v>112</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>114</v>
@@ -2851,7 +2947,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
@@ -2873,7 +2969,7 @@
         <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>111</v>
@@ -2899,7 +2995,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>118</v>
@@ -2921,7 +3017,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>111</v>
@@ -2952,12 +3048,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23506F6-BC0D-A24F-B388-3B0CF616B6D9}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="267">
   <si>
     <t>Metric Name</t>
   </si>
@@ -751,94 +751,118 @@
     <t>Detection Capabilities</t>
   </si>
   <si>
-    <t>Ability to detect various threats, such as malware, anomalies, and insider threats using the SIEM.</t>
-  </si>
-  <si>
     <t>Partially Available</t>
   </si>
   <si>
     <t>SIEM Team</t>
   </si>
   <si>
-    <t>Improve detection rules for insider threats</t>
-  </si>
-  <si>
     <t>Threat Hunting</t>
   </si>
   <si>
-    <t>Ability to proactively search for indicators of compromise (IOCs) and unknown threats.</t>
-  </si>
-  <si>
     <t>Threat Intel Team</t>
   </si>
   <si>
-    <t>Increase frequency of threat hunts</t>
-  </si>
-  <si>
     <t>Threat Detection, Incident Response</t>
   </si>
   <si>
     <t>Custom Dashboards</t>
   </si>
   <si>
-    <t>Customizable dashboards to monitor specific activities or use cases.</t>
-  </si>
-  <si>
-    <t>Develop more user-specific dashboards</t>
-  </si>
-  <si>
     <t>Visibility, Reporting, Compliance</t>
   </si>
   <si>
     <t>Alert Creation</t>
   </si>
   <si>
-    <t>Ability to create and manage alerts for suspicious activities detected in logs.</t>
-  </si>
-  <si>
     <t>SOC Team</t>
   </si>
   <si>
-    <t>Refine alert thresholds to reduce false positives</t>
-  </si>
-  <si>
     <t>Admin Functions</t>
   </si>
   <si>
-    <t>Administrative tasks such as user management, log retention, and configuration changes.</t>
-  </si>
-  <si>
-    <t>Streamline user role assignment</t>
-  </si>
-  <si>
     <t>System Management, Compliance</t>
   </si>
   <si>
     <t>Upkeep</t>
   </si>
   <si>
-    <t>Regular maintenance, software updates, and system health checks for the SIEM.</t>
-  </si>
-  <si>
     <t>SIEM Maintenance Team</t>
   </si>
   <si>
-    <t>Automate routine maintenance tasks</t>
-  </si>
-  <si>
     <t>System Stability, Compliance</t>
   </si>
   <si>
     <t>Threat Intel Feed Search</t>
   </si>
   <si>
-    <t>Capability to search for and correlate threat intelligence feeds with internal activity to identify threats.</t>
-  </si>
-  <si>
-    <t>Integrate additional threat feeds</t>
-  </si>
-  <si>
     <t>Threat Detection, Threat Intelligence</t>
+  </si>
+  <si>
+    <t>Sub-Items</t>
+  </si>
+  <si>
+    <t>Malware Detection, Anomaly Detection, Insider Threat Detection</t>
+  </si>
+  <si>
+    <t>Ability to detect various threats, such as malware, anomalies, and insider threats using the SIEM. Includes correlation of data from multiple sources to identify complex attack patterns.</t>
+  </si>
+  <si>
+    <t>Improve detection rules for insider threats; Enhance correlation capabilities</t>
+  </si>
+  <si>
+    <t>IOC Search, Behavioral Analysis, Threat Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Ability to proactively search for indicators of compromise (IOCs) and unknown threats. Involves using both automated tools and manual analysis to detect stealthy or sophisticated attacks.</t>
+  </si>
+  <si>
+    <t>Increase frequency of threat hunts; Develop more advanced threat hunting playbooks</t>
+  </si>
+  <si>
+    <t>Executive Dashboard, Analyst Dashboard, Incident Response Dashboard</t>
+  </si>
+  <si>
+    <t>Customizable dashboards to monitor specific activities or use cases. Provides detailed views for different stakeholders, such as executives, analysts, and incident responders.</t>
+  </si>
+  <si>
+    <t>Develop more user-specific dashboards; Create dashboards for executive reporting</t>
+  </si>
+  <si>
+    <t>Rule-Based Alerts, Threshold Alerts, Escalation Workflows, Machine Learning Alerts</t>
+  </si>
+  <si>
+    <t>Ability to create and manage alerts for suspicious activities detected in logs. Includes advanced customization of alert logic, machine learning-based alerts, and escalation workflows based on severity.</t>
+  </si>
+  <si>
+    <t>Refine alert thresholds to reduce false positives; Implement alert prioritization based on risk</t>
+  </si>
+  <si>
+    <t>User Management, Log Retention, Role-Based Access Control, Configuration Auditing</t>
+  </si>
+  <si>
+    <t>Administrative tasks such as user management, log retention, configuration changes, and auditing configurations. Includes role-based access control, audit logging, and periodic review of permissions.</t>
+  </si>
+  <si>
+    <t>Streamline user role assignment; Automate audit logging for configuration changes</t>
+  </si>
+  <si>
+    <t>Software Updates, Performance Monitoring, Health Checks, Backup &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Regular maintenance, software updates, and system health checks for the SIEM. Includes monitoring for performance bottlenecks, ensuring timely software patches, and backup &amp; recovery processes.</t>
+  </si>
+  <si>
+    <t>Automate routine maintenance tasks; Implement proactive health checks; Ensure regular backup and recovery tests</t>
+  </si>
+  <si>
+    <t>Feed Integration, Threat Correlation, Automated Enrichment, Threat Actor Profiling</t>
+  </si>
+  <si>
+    <t>Capability to search for and correlate threat intelligence feeds with internal activity to identify threats. Supports integration with multiple threat feeds, automated enrichment of indicators, and threat actor profiling.</t>
+  </si>
+  <si>
+    <t>Integrate additional threat feeds; Automate enrichment of threat intelligence data; Expand threat actor profiling capabilities</t>
   </si>
 </sst>
 </file>
@@ -3048,205 +3072,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="176.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23506F6-BC0D-A24F-B388-3B0CF616B6D9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9E1BF4-789B-894F-9EBA-B56B1B4DCBA2}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Log Collection" sheetId="2" r:id="rId2"/>
-    <sheet name="SIEM" sheetId="3" r:id="rId3"/>
-    <sheet name="Team" sheetId="4" r:id="rId4"/>
-    <sheet name="Insider Risk" sheetId="5" r:id="rId5"/>
+    <sheet name="SIEM" sheetId="3" r:id="rId2"/>
+    <sheet name="SOAR" sheetId="7" r:id="rId3"/>
+    <sheet name="SOC Ops" sheetId="8" r:id="rId4"/>
+    <sheet name="Log Collection" sheetId="2" r:id="rId5"/>
+    <sheet name="Team" sheetId="4" r:id="rId6"/>
+    <sheet name="Insider Risk" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="457">
   <si>
     <t>Metric Name</t>
   </si>
@@ -769,6 +771,9 @@
     <t>Custom Dashboards</t>
   </si>
   <si>
+    <t>Develop more user-specific dashboards</t>
+  </si>
+  <si>
     <t>Visibility, Reporting, Compliance</t>
   </si>
   <si>
@@ -778,6 +783,9 @@
     <t>SOC Team</t>
   </si>
   <si>
+    <t>Refine alert thresholds to reduce false positives</t>
+  </si>
+  <si>
     <t>Admin Functions</t>
   </si>
   <si>
@@ -796,73 +804,637 @@
     <t>Threat Intel Feed Search</t>
   </si>
   <si>
+    <t>Integrate additional threat feeds</t>
+  </si>
+  <si>
     <t>Threat Detection, Threat Intelligence</t>
   </si>
   <si>
-    <t>Sub-Items</t>
-  </si>
-  <si>
-    <t>Malware Detection, Anomaly Detection, Insider Threat Detection</t>
-  </si>
-  <si>
     <t>Ability to detect various threats, such as malware, anomalies, and insider threats using the SIEM. Includes correlation of data from multiple sources to identify complex attack patterns.</t>
   </si>
   <si>
     <t>Improve detection rules for insider threats; Enhance correlation capabilities</t>
   </si>
   <si>
-    <t>IOC Search, Behavioral Analysis, Threat Hypothesis Testing</t>
-  </si>
-  <si>
-    <t>Ability to proactively search for indicators of compromise (IOCs) and unknown threats. Involves using both automated tools and manual analysis to detect stealthy or sophisticated attacks.</t>
-  </si>
-  <si>
-    <t>Increase frequency of threat hunts; Develop more advanced threat hunting playbooks</t>
-  </si>
-  <si>
-    <t>Executive Dashboard, Analyst Dashboard, Incident Response Dashboard</t>
-  </si>
-  <si>
-    <t>Customizable dashboards to monitor specific activities or use cases. Provides detailed views for different stakeholders, such as executives, analysts, and incident responders.</t>
-  </si>
-  <si>
-    <t>Develop more user-specific dashboards; Create dashboards for executive reporting</t>
-  </si>
-  <si>
-    <t>Rule-Based Alerts, Threshold Alerts, Escalation Workflows, Machine Learning Alerts</t>
-  </si>
-  <si>
-    <t>Ability to create and manage alerts for suspicious activities detected in logs. Includes advanced customization of alert logic, machine learning-based alerts, and escalation workflows based on severity.</t>
-  </si>
-  <si>
-    <t>Refine alert thresholds to reduce false positives; Implement alert prioritization based on risk</t>
-  </si>
-  <si>
-    <t>User Management, Log Retention, Role-Based Access Control, Configuration Auditing</t>
-  </si>
-  <si>
-    <t>Administrative tasks such as user management, log retention, configuration changes, and auditing configurations. Includes role-based access control, audit logging, and periodic review of permissions.</t>
-  </si>
-  <si>
-    <t>Streamline user role assignment; Automate audit logging for configuration changes</t>
-  </si>
-  <si>
-    <t>Software Updates, Performance Monitoring, Health Checks, Backup &amp; Recovery</t>
-  </si>
-  <si>
-    <t>Regular maintenance, software updates, and system health checks for the SIEM. Includes monitoring for performance bottlenecks, ensuring timely software patches, and backup &amp; recovery processes.</t>
-  </si>
-  <si>
-    <t>Automate routine maintenance tasks; Implement proactive health checks; Ensure regular backup and recovery tests</t>
-  </si>
-  <si>
-    <t>Feed Integration, Threat Correlation, Automated Enrichment, Threat Actor Profiling</t>
-  </si>
-  <si>
-    <t>Capability to search for and correlate threat intelligence feeds with internal activity to identify threats. Supports integration with multiple threat feeds, automated enrichment of indicators, and threat actor profiling.</t>
-  </si>
-  <si>
-    <t>Integrate additional threat feeds; Automate enrichment of threat intelligence data; Expand threat actor profiling capabilities</t>
+    <t>Sub-Item</t>
+  </si>
+  <si>
+    <t>Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Ability to detect anomalies in user behavior or network activity that may indicate a security incident.</t>
+  </si>
+  <si>
+    <t>Improve anomaly detection models; Enhance data quality</t>
+  </si>
+  <si>
+    <t>Insider Threat Detection</t>
+  </si>
+  <si>
+    <t>Identify potential insider threats through monitoring user activity and behaviors that deviate from norms.</t>
+  </si>
+  <si>
+    <t>Enhance correlation with HR data; Develop insider threat detection rules</t>
+  </si>
+  <si>
+    <t>IOC Search</t>
+  </si>
+  <si>
+    <t>Ability to proactively search for indicators of compromise (IOCs) to identify potential threats.</t>
+  </si>
+  <si>
+    <t>Increase frequency of IOC searches; Integrate new threat feeds</t>
+  </si>
+  <si>
+    <t>Behavioral Analysis</t>
+  </si>
+  <si>
+    <t>Analyze user and entity behaviors to identify deviations that may indicate threats.</t>
+  </si>
+  <si>
+    <t>Develop more advanced behavioral analysis models</t>
+  </si>
+  <si>
+    <t>Threat Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Formulate and test hypotheses to uncover sophisticated threats that evade detection.</t>
+  </si>
+  <si>
+    <t>Develop more advanced threat hunting playbooks</t>
+  </si>
+  <si>
+    <t>Executive Dashboard</t>
+  </si>
+  <si>
+    <t>Provide a high-level overview of security posture tailored for executive stakeholders.</t>
+  </si>
+  <si>
+    <t>Create dashboards for executive reporting</t>
+  </si>
+  <si>
+    <t>Analyst Dashboard</t>
+  </si>
+  <si>
+    <t>Detailed dashboards for SOC analysts to monitor ongoing incidents and security metrics.</t>
+  </si>
+  <si>
+    <t>Incident Response Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboards designed to support incident response activities, including alerts and threat context.</t>
+  </si>
+  <si>
+    <t>Enhance dashboards with more real-time data</t>
+  </si>
+  <si>
+    <t>Incident Response, Threat Detection</t>
+  </si>
+  <si>
+    <t>Rule-Based Alerts</t>
+  </si>
+  <si>
+    <t>Create alerts based on specific predefined rules to detect suspicious activities.</t>
+  </si>
+  <si>
+    <t>Threshold Alerts</t>
+  </si>
+  <si>
+    <t>Generate alerts when certain thresholds are exceeded, indicating potential anomalies.</t>
+  </si>
+  <si>
+    <t>Implement alert prioritization based on risk</t>
+  </si>
+  <si>
+    <t>Escalation Workflows</t>
+  </si>
+  <si>
+    <t>Define workflows to escalate alerts based on severity and risk assessment.</t>
+  </si>
+  <si>
+    <t>Automate escalation processes to improve response time</t>
+  </si>
+  <si>
+    <t>Machine Learning Alerts</t>
+  </si>
+  <si>
+    <t>Utilize machine learning models to generate alerts for anomalous activities that may indicate threats.</t>
+  </si>
+  <si>
+    <t>Develop and train machine learning models for anomaly detection</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Manage user accounts, roles, and permissions within the SIEM environment.</t>
+  </si>
+  <si>
+    <t>Streamline user role assignment; Periodically review user access</t>
+  </si>
+  <si>
+    <t>Log Retention</t>
+  </si>
+  <si>
+    <t>Manage retention policies for logs to meet compliance and operational needs.</t>
+  </si>
+  <si>
+    <t>Automate log retention based on policy changes</t>
+  </si>
+  <si>
+    <t>Role-Based Access Control</t>
+  </si>
+  <si>
+    <t>Implement and manage role-based access control for the SIEM to ensure appropriate permissions.</t>
+  </si>
+  <si>
+    <t>Automate audit logging for role changes</t>
+  </si>
+  <si>
+    <t>Configuration Auditing</t>
+  </si>
+  <si>
+    <t>Regularly audit configuration changes to ensure compliance and adherence to best practices.</t>
+  </si>
+  <si>
+    <t>Implement automated configuration audits</t>
+  </si>
+  <si>
+    <t>Software Updates</t>
+  </si>
+  <si>
+    <t>Regularly update SIEM software to ensure security and access to new features.</t>
+  </si>
+  <si>
+    <t>Automate routine maintenance tasks; Schedule regular updates</t>
+  </si>
+  <si>
+    <t>Performance Monitoring</t>
+  </si>
+  <si>
+    <t>Monitor SIEM performance to identify bottlenecks and optimize system efficiency.</t>
+  </si>
+  <si>
+    <t>Implement proactive health checks</t>
+  </si>
+  <si>
+    <t>Health Checks</t>
+  </si>
+  <si>
+    <t>Perform regular system health checks to ensure all components are functioning properly.</t>
+  </si>
+  <si>
+    <t>Ensure regular health check procedures are documented</t>
+  </si>
+  <si>
+    <t>Backup &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Ensure SIEM data is backed up and recovery procedures are in place in case of failure.</t>
+  </si>
+  <si>
+    <t>Ensure regular backup and recovery tests</t>
+  </si>
+  <si>
+    <t>Feed Integration</t>
+  </si>
+  <si>
+    <t>Integrate multiple threat intelligence feeds into the SIEM for comprehensive threat visibility.</t>
+  </si>
+  <si>
+    <t>Threat Correlation</t>
+  </si>
+  <si>
+    <t>Correlate threat intelligence with internal activity to identify potential compromises.</t>
+  </si>
+  <si>
+    <t>Automate correlation processes to improve efficiency</t>
+  </si>
+  <si>
+    <t>Automated Enrichment</t>
+  </si>
+  <si>
+    <t>Automatically enrich internal alerts with data from threat intelligence feeds.</t>
+  </si>
+  <si>
+    <t>Automate enrichment of threat intelligence data</t>
+  </si>
+  <si>
+    <t>Threat Actor Profiling</t>
+  </si>
+  <si>
+    <t>Profile threat actors based on correlated intelligence and historical data.</t>
+  </si>
+  <si>
+    <t>Expand threat actor profiling capabilities</t>
+  </si>
+  <si>
+    <t>SOC Operations and Response</t>
+  </si>
+  <si>
+    <t>Playbook Development</t>
+  </si>
+  <si>
+    <t>Standard Playbooks</t>
+  </si>
+  <si>
+    <t>Develop standardized playbooks for common incidents to ensure consistent and repeatable response actions.</t>
+  </si>
+  <si>
+    <t>SOAR Team</t>
+  </si>
+  <si>
+    <t>Review and refine existing playbooks; Create more comprehensive response actions</t>
+  </si>
+  <si>
+    <t>Custom Playbooks</t>
+  </si>
+  <si>
+    <t>Develop playbooks tailored for specific business units or unique threats to increase response efficacy.</t>
+  </si>
+  <si>
+    <t>Collaborate with stakeholders for custom requirements; Improve flexibility of playbooks</t>
+  </si>
+  <si>
+    <t>Incident Response, Customization</t>
+  </si>
+  <si>
+    <t>Playbook Testing</t>
+  </si>
+  <si>
+    <t>Regularly test and validate playbooks to ensure they perform as expected in different scenarios.</t>
+  </si>
+  <si>
+    <t>Implement scheduled playbook tests; Document and fix gaps identified during tests</t>
+  </si>
+  <si>
+    <t>Incident Readiness, Quality Control</t>
+  </si>
+  <si>
+    <t>Case Management</t>
+  </si>
+  <si>
+    <t>Incident Tracking</t>
+  </si>
+  <si>
+    <t>Track and document incidents within the SOAR platform, including categorization, status, and historical data.</t>
+  </si>
+  <si>
+    <t>Improve categorization accuracy; Automate incident status updates</t>
+  </si>
+  <si>
+    <t>Incident Response, Reporting</t>
+  </si>
+  <si>
+    <t>Investigation Collaboration</t>
+  </si>
+  <si>
+    <t>Facilitate collaboration between SOC analysts during investigations, including note-sharing and task assignments.</t>
+  </si>
+  <si>
+    <t>Implement more efficient collaboration tools; Develop shared incident workspaces</t>
+  </si>
+  <si>
+    <t>Incident Response, Team Collaboration</t>
+  </si>
+  <si>
+    <t>Post-Incident Review</t>
+  </si>
+  <si>
+    <t>Conduct post-incident reviews to analyze the root cause and response effectiveness.</t>
+  </si>
+  <si>
+    <t>Automate reporting templates for reviews; Improve documentation process</t>
+  </si>
+  <si>
+    <t>Incident Analysis, Process Improvement</t>
+  </si>
+  <si>
+    <t>Integration Management</t>
+  </si>
+  <si>
+    <t>SIEM Integration</t>
+  </si>
+  <si>
+    <t>Integrate SOAR with SIEM to trigger automated responses based on detected alerts.</t>
+  </si>
+  <si>
+    <t>Improve alert enrichment from SIEM; Automate response triggers</t>
+  </si>
+  <si>
+    <t>Threat Detection, Automated Response</t>
+  </si>
+  <si>
+    <t>Endpoint Security Integration</t>
+  </si>
+  <si>
+    <t>Integrate SOAR with endpoint security tools to provide context during incident response actions.</t>
+  </si>
+  <si>
+    <t>Expand integration to additional endpoint tools; Develop enriched response actions</t>
+  </si>
+  <si>
+    <t>Endpoint Threat Detection, Response</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Integration</t>
+  </si>
+  <si>
+    <t>Integrate SOAR with threat intelligence feeds to provide enriched context for incidents and response actions.</t>
+  </si>
+  <si>
+    <t>Improve threat feed integration; Automate enrichment during playbook execution</t>
+  </si>
+  <si>
+    <t>Threat Intelligence, Incident Context</t>
+  </si>
+  <si>
+    <t>Automated Actions</t>
+  </si>
+  <si>
+    <t>Containment Actions</t>
+  </si>
+  <si>
+    <t>Automate containment steps, such as isolating compromised hosts, based on predefined conditions.</t>
+  </si>
+  <si>
+    <t>Refine conditions for containment; Develop fallback manual procedures</t>
+  </si>
+  <si>
+    <t>Threat Containment, Incident Response</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Enrichment</t>
+  </si>
+  <si>
+    <t>Automatically enrich incidents with threat intelligence data, including IOCs and known malicious actors.</t>
+  </si>
+  <si>
+    <t>Integrate additional threat feeds; Automate IOC matching</t>
+  </si>
+  <si>
+    <t>Threat Detection, Threat Enrichment</t>
+  </si>
+  <si>
+    <t>Notification and Escalation</t>
+  </si>
+  <si>
+    <t>Automate notifications and escalations to appropriate teams when incidents meet predefined criteria.</t>
+  </si>
+  <si>
+    <t>Implement flexible escalation workflows; Review notification efficiency</t>
+  </si>
+  <si>
+    <t>Incident Response, Team Coordination</t>
+  </si>
+  <si>
+    <t>Reporting and Metrics</t>
+  </si>
+  <si>
+    <t>Incident Metrics</t>
+  </si>
+  <si>
+    <t>Track key metrics related to incident response, such as mean time to detect (MTTD) and mean time to respond (MTTR).</t>
+  </si>
+  <si>
+    <t>Reporting Team</t>
+  </si>
+  <si>
+    <t>Automate metric collection from incidents; Improve visualization in reports</t>
+  </si>
+  <si>
+    <t>Incident Response, Metrics Tracking</t>
+  </si>
+  <si>
+    <t>Compliance Reporting</t>
+  </si>
+  <si>
+    <t>Automate the generation of reports needed for compliance audits and regulatory requirements.</t>
+  </si>
+  <si>
+    <t>Compliance Team</t>
+  </si>
+  <si>
+    <t>Develop automated compliance report templates; Schedule regular report exports</t>
+  </si>
+  <si>
+    <t>Compliance, Regulatory Reporting</t>
+  </si>
+  <si>
+    <t>Executive Summary</t>
+  </si>
+  <si>
+    <t>Create executive summary reports that provide high-level views of the security posture and major incidents.</t>
+  </si>
+  <si>
+    <t>Collaborate with executives for report requirements; Automate dashboard updates</t>
+  </si>
+  <si>
+    <t>Executive Reporting, Visibility</t>
+  </si>
+  <si>
+    <t>Incident Detection</t>
+  </si>
+  <si>
+    <t>Security Monitoring</t>
+  </si>
+  <si>
+    <t>Monitor security events across the network, endpoints, and applications to detect potential incidents.</t>
+  </si>
+  <si>
+    <t>Security Operations Team</t>
+  </si>
+  <si>
+    <t>Enhance monitoring coverage for critical systems; Expand detection rules</t>
+  </si>
+  <si>
+    <t>Alert Analysis</t>
+  </si>
+  <si>
+    <t>Analyze alerts generated by SIEM and other tools to determine potential incidents that require action.</t>
+  </si>
+  <si>
+    <t>Improve alert triage processes; Develop analyst training programs</t>
+  </si>
+  <si>
+    <t>Identify anomalies in user or system behavior that may indicate malicious activity.</t>
+  </si>
+  <si>
+    <t>Implement machine learning for better anomaly detection; Enhance data quality</t>
+  </si>
+  <si>
+    <t>Threat Detection, User Behavior Monitoring</t>
+  </si>
+  <si>
+    <t>Triage and Investigation</t>
+  </si>
+  <si>
+    <t>Conduct initial triage and in-depth investigation of incidents to assess impact and determine response actions.</t>
+  </si>
+  <si>
+    <t>Standardize investigation procedures; Develop better triage guidelines</t>
+  </si>
+  <si>
+    <t>Incident Response, Threat Analysis</t>
+  </si>
+  <si>
+    <t>Containment</t>
+  </si>
+  <si>
+    <t>Contain incidents by isolating affected systems and minimizing damage while preserving evidence.</t>
+  </si>
+  <si>
+    <t>Automate containment where possible; Develop manual fallback procedures</t>
+  </si>
+  <si>
+    <t>Threat Containment, Incident Handling</t>
+  </si>
+  <si>
+    <t>Eradication</t>
+  </si>
+  <si>
+    <t>Remove malicious elements from affected systems and environments to ensure complete incident resolution.</t>
+  </si>
+  <si>
+    <t>Streamline eradication processes; Improve toolsets for faster eradication</t>
+  </si>
+  <si>
+    <t>Threat Removal, System Recovery</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Restore affected systems and services to normal operation, ensuring no remnants of the threat remain.</t>
+  </si>
+  <si>
+    <t>IT Recovery Team</t>
+  </si>
+  <si>
+    <t>Develop detailed recovery procedures; Test recovery regularly</t>
+  </si>
+  <si>
+    <t>System Recovery, Service Restoration</t>
+  </si>
+  <si>
+    <t>Conduct reviews after incident resolution to determine root causes, lessons learned, and improve processes.</t>
+  </si>
+  <si>
+    <t>Automate post-incident reporting; Develop a consistent review template</t>
+  </si>
+  <si>
+    <t>Process Improvement, Incident Analysis</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Utilization</t>
+  </si>
+  <si>
+    <t>IOC Matching</t>
+  </si>
+  <si>
+    <t>Leverage indicators of compromise (IOCs) from threat intelligence feeds to identify threats in the environment.</t>
+  </si>
+  <si>
+    <t>Automate IOC ingestion and matching; Expand threat intelligence sources</t>
+  </si>
+  <si>
+    <t>Threat Detection, Intelligence Integration</t>
+  </si>
+  <si>
+    <t>Threat Actor Analysis</t>
+  </si>
+  <si>
+    <t>Identify and analyze threat actors responsible for incidents to understand motivations, tactics, and potential future actions.</t>
+  </si>
+  <si>
+    <t>Improve analysis of threat actor profiles; Integrate historical incident data</t>
+  </si>
+  <si>
+    <t>Threat Analysis, Threat Profiling</t>
+  </si>
+  <si>
+    <t>Threat Landscape Awareness</t>
+  </si>
+  <si>
+    <t>Maintain awareness of the evolving threat landscape, including emerging threats and attack techniques.</t>
+  </si>
+  <si>
+    <t>Develop regular threat landscape reports; Improve analyst awareness programs</t>
+  </si>
+  <si>
+    <t>Threat Intelligence, Risk Management</t>
+  </si>
+  <si>
+    <t>Collaboration and Coordination</t>
+  </si>
+  <si>
+    <t>Internal Communication</t>
+  </si>
+  <si>
+    <t>Facilitate communication among internal teams during incident response, including IT, legal, and management.</t>
+  </si>
+  <si>
+    <t>Implement streamlined communication channels; Develop escalation paths</t>
+  </si>
+  <si>
+    <t>Incident Coordination, Team Collaboration</t>
+  </si>
+  <si>
+    <t>External Communication</t>
+  </si>
+  <si>
+    <t>Coordinate with external entities, such as vendors, regulators, and law enforcement, during incidents.</t>
+  </si>
+  <si>
+    <t>Develop external communication procedures; Build relationships with law enforcement</t>
+  </si>
+  <si>
+    <t>Incident Reporting, Regulatory Compliance</t>
+  </si>
+  <si>
+    <t>Stakeholder Engagement</t>
+  </si>
+  <si>
+    <t>Keep key stakeholders informed during incidents, including status updates and expected impact.</t>
+  </si>
+  <si>
+    <t>Develop stakeholder engagement templates; Automate status updates</t>
+  </si>
+  <si>
+    <t>Executive Reporting, Incident Transparency</t>
+  </si>
+  <si>
+    <t>Metrics and Reporting</t>
+  </si>
+  <si>
+    <t>Track and report key metrics, such as the number of incidents, response times, and severity levels.</t>
+  </si>
+  <si>
+    <t>Automate incident metrics collection; Improve data visualization</t>
+  </si>
+  <si>
+    <t>SLA Adherence</t>
+  </si>
+  <si>
+    <t>Monitor adherence to Service Level Agreements (SLAs) for incident response to ensure timely action.</t>
+  </si>
+  <si>
+    <t>Develop SLA tracking dashboards; Automate SLA breach notifications</t>
+  </si>
+  <si>
+    <t>Service Assurance, Incident Management</t>
+  </si>
+  <si>
+    <t>Continuous Improvement</t>
+  </si>
+  <si>
+    <t>Measure the effectiveness of incident response efforts and identify areas for improvement.</t>
+  </si>
+  <si>
+    <t>Develop improvement plans based on post-incident reviews; Implement regular process audits</t>
+  </si>
+  <si>
+    <t>Process Improvement, Quality Assurance</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,6 +1513,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -968,6 +1543,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,8 +1892,8 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="66" style="8" customWidth="1"/>
-    <col min="5" max="5" width="39" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" style="9" customWidth="1"/>
+    <col min="5" max="5" width="39" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
@@ -1327,50 +1906,50 @@
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1448,7 +2027,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1590,13 +2169,13 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1605,14 +2184,14 @@
       <c r="E8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1"/>
@@ -1692,6 +2271,1642 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4D4EF-8AD6-F044-9C90-44FE922B03DE}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -3070,240 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="176.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="102.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3317,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75925B00-4C4E-D14C-921F-FFA3D9BB14A6}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -3327,14 +5309,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3363,7 +5345,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3382,7 +5364,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
@@ -3399,7 +5381,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
@@ -3416,7 +5398,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
@@ -3433,7 +5415,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
@@ -3450,7 +5432,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3461,10 +5443,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
@@ -3473,10 +5455,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
@@ -3485,10 +5467,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3499,10 +5481,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3511,10 +5493,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
@@ -3523,10 +5505,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
@@ -3535,10 +5517,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
@@ -3547,10 +5529,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
@@ -3559,10 +5541,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3573,10 +5555,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3587,10 +5569,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -3599,10 +5581,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -3611,7 +5593,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9E1BF4-789B-894F-9EBA-B56B1B4DCBA2}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB743271-2AF7-D44C-A822-B4D3B3627CA4}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="SIEM" sheetId="3" r:id="rId2"/>
-    <sheet name="SOAR" sheetId="7" r:id="rId3"/>
-    <sheet name="SOC Ops" sheetId="8" r:id="rId4"/>
-    <sheet name="Log Collection" sheetId="2" r:id="rId5"/>
-    <sheet name="Team" sheetId="4" r:id="rId6"/>
-    <sheet name="Insider Risk" sheetId="5" r:id="rId7"/>
+    <sheet name="SIEM Score Card" sheetId="9" r:id="rId2"/>
+    <sheet name="SIEM" sheetId="3" r:id="rId3"/>
+    <sheet name="SOAR" sheetId="7" r:id="rId4"/>
+    <sheet name="SOC Ops" sheetId="8" r:id="rId5"/>
+    <sheet name="Log Collection" sheetId="2" r:id="rId6"/>
+    <sheet name="Team" sheetId="4" r:id="rId7"/>
+    <sheet name="Insider Risk" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="549">
   <si>
     <t>Metric Name</t>
   </si>
@@ -573,6 +574,15 @@
     <t>Endpoint</t>
   </si>
   <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>Identity</t>
   </si>
   <si>
@@ -1435,13 +1445,280 @@
   </si>
   <si>
     <t>Process Improvement, Quality Assurance</t>
+  </si>
+  <si>
+    <t>Feature Category</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Description/Example</t>
+  </si>
+  <si>
+    <t>Core Features</t>
+  </si>
+  <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>Ability to upload a csv file to be used in the search</t>
+  </si>
+  <si>
+    <t>Ability to save results in a csv file to be used in additional searches or export the data from the platform</t>
+  </si>
+  <si>
+    <t>Parse Using Regex</t>
+  </si>
+  <si>
+    <t>Ability to use Regex to parse out additional fields</t>
+  </si>
+  <si>
+    <t>Nested Searches</t>
+  </si>
+  <si>
+    <t>Ability to perform nested searches</t>
+  </si>
+  <si>
+    <t>CIDR Match</t>
+  </si>
+  <si>
+    <t>CIDR match search feature for IP ranges</t>
+  </si>
+  <si>
+    <t>In-Search Fields Creation</t>
+  </si>
+  <si>
+    <t>Ability to create new fields in-line in the search</t>
+  </si>
+  <si>
+    <t>Scheduled Reports/Alerts</t>
+  </si>
+  <si>
+    <t>Ability to create scheduled reports/alerts to perform additional actions</t>
+  </si>
+  <si>
+    <t>Core Feature</t>
+  </si>
+  <si>
+    <t>A well defined and documented search language</t>
+  </si>
+  <si>
+    <t>Data Visualizations</t>
+  </si>
+  <si>
+    <t>Customized Dashboard Panels</t>
+  </si>
+  <si>
+    <t>Ability to customize dashboard panels</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Drop down to filter results based on field value</t>
+  </si>
+  <si>
+    <t>Dynamic Data Entry</t>
+  </si>
+  <si>
+    <t>Dynamic data entry to populate dashboard searches</t>
+  </si>
+  <si>
+    <t>Custom Time Ranges</t>
+  </si>
+  <si>
+    <t>Custom time ranges</t>
+  </si>
+  <si>
+    <t>Drill-Down</t>
+  </si>
+  <si>
+    <t>Drill-down feature to provide additional information</t>
+  </si>
+  <si>
+    <t>Role-Based Access</t>
+  </si>
+  <si>
+    <t>Provide role-based access</t>
+  </si>
+  <si>
+    <t>Color Coded Visualization</t>
+  </si>
+  <si>
+    <t>Add color coded visualizations based on field values</t>
+  </si>
+  <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Data Models</t>
+  </si>
+  <si>
+    <t>Data Models to reduce data to smaller set to allow faster searches on normalized data sets.</t>
+  </si>
+  <si>
+    <t>Common Information Model</t>
+  </si>
+  <si>
+    <t>Ability to apply a Common Information Model to data sets to normalize data sets to allow for uniform searches.</t>
+  </si>
+  <si>
+    <t>Ability to provide role-based access to data sets</t>
+  </si>
+  <si>
+    <t>New Indexes</t>
+  </si>
+  <si>
+    <t>Ability to create new indexes based on output of search results</t>
+  </si>
+  <si>
+    <t>Inter-Operability</t>
+  </si>
+  <si>
+    <t>Ability to send/receive data to other tools</t>
+  </si>
+  <si>
+    <t>Advanced Features Sets</t>
+  </si>
+  <si>
+    <t>Risk Framework</t>
+  </si>
+  <si>
+    <t>Assets and Identities management for dynamic risk scoring</t>
+  </si>
+  <si>
+    <t>Risk Modifiers</t>
+  </si>
+  <si>
+    <t>Risk Modifiers to increase/decrease set score based on defined criteria</t>
+  </si>
+  <si>
+    <t>Ability to create a Risk index/ Risk Data Model to aggregate risk events</t>
+  </si>
+  <si>
+    <t>MITRE ATTACK Framework</t>
+  </si>
+  <si>
+    <t>MITRE ATTACK framework mappings and data enrichment</t>
+  </si>
+  <si>
+    <t>Intelligence Feeds</t>
+  </si>
+  <si>
+    <t>Framework for managing threat intel feeds</t>
+  </si>
+  <si>
+    <t>Alert Management</t>
+  </si>
+  <si>
+    <t>Unified Alert View</t>
+  </si>
+  <si>
+    <t>Single pane of glass to see and manage all alerts that have been triggered</t>
+  </si>
+  <si>
+    <t>Alert Status Management</t>
+  </si>
+  <si>
+    <t>Ability to change status of alerts as they progress through investigation</t>
+  </si>
+  <si>
+    <t>Alert Enrichment</t>
+  </si>
+  <si>
+    <t>Alert enrichment via asset/user data, drilldowns, threat intel, etc</t>
+  </si>
+  <si>
+    <t>Ability to easily create new alerts</t>
+  </si>
+  <si>
+    <t>Vendor Provided content packs that provide prebuilt detections</t>
+  </si>
+  <si>
+    <t>Role based access to alert creation, modification and deletion</t>
+  </si>
+  <si>
+    <t>Version control tracking for detections</t>
+  </si>
+  <si>
+    <t>SOAR Integration</t>
+  </si>
+  <si>
+    <t>Integration with Automation Platforms</t>
+  </si>
+  <si>
+    <t>Ability to send/receive events with Automation platforms</t>
+  </si>
+  <si>
+    <t>Search from SOAR</t>
+  </si>
+  <si>
+    <t>Ability to perform addition searches from SOAR platform</t>
+  </si>
+  <si>
+    <t>Asset and Identities</t>
+  </si>
+  <si>
+    <t>Asset Mapping</t>
+  </si>
+  <si>
+    <t>Ability to map an asset to an IP address from data sources</t>
+  </si>
+  <si>
+    <t>Asset Import</t>
+  </si>
+  <si>
+    <t>Ability to import assets</t>
+  </si>
+  <si>
+    <t>Identity Import</t>
+  </si>
+  <si>
+    <t>Ability to import identities</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Information Sharing</t>
+  </si>
+  <si>
+    <t>Active user group/community for information sharing and support</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Availability of free education/training material</t>
+  </si>
+  <si>
+    <t>Ability to stand up Dev environment without additional cost</t>
+  </si>
+  <si>
+    <t>Role based access</t>
+  </si>
+  <si>
+    <t>Restrict access to indexes/data based on access requirements</t>
+  </si>
+  <si>
+    <t>Integration with Log Data Processor</t>
+  </si>
+  <si>
+    <t>Correlation Searches</t>
+  </si>
+  <si>
+    <t>Allow Admins to audit user actions</t>
+  </si>
+  <si>
+    <t>Support various forms of data onboarding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1463,6 +1740,25 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFB6C2CF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1500,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1547,6 +1843,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2027,7 +2333,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -2271,6 +2577,806 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A695D-4A44-814A-B27E-25A05BE82082}">
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79" s="24"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" s="24"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" s="24"/>
+    </row>
+    <row r="86" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -2293,10 +3399,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -2305,7 +3411,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>101</v>
@@ -2319,25 +3425,25 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>110</v>
@@ -2345,25 +3451,25 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>110</v>
@@ -2371,25 +3477,25 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>110</v>
@@ -2397,13 +3503,13 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>107</v>
@@ -2412,24 +3518,24 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -2438,24 +3544,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>107</v>
@@ -2464,24 +3570,24 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -2490,24 +3596,24 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>107</v>
@@ -2516,24 +3622,24 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>107</v>
@@ -2542,24 +3648,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>107</v>
@@ -2568,24 +3674,24 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>107</v>
@@ -2594,24 +3700,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>107</v>
@@ -2620,24 +3726,24 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -2646,24 +3752,24 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>107</v>
@@ -2672,24 +3778,24 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>107</v>
@@ -2698,24 +3804,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
@@ -2724,24 +3830,24 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>107</v>
@@ -2750,24 +3856,24 @@
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>107</v>
@@ -2776,24 +3882,24 @@
         <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>107</v>
@@ -2802,24 +3908,24 @@
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>107</v>
@@ -2828,24 +3934,24 @@
         <v>43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>107</v>
@@ -2854,24 +3960,24 @@
         <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>107</v>
@@ -2880,24 +3986,24 @@
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>107</v>
@@ -2906,24 +4012,24 @@
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
@@ -2932,24 +4038,24 @@
         <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>107</v>
@@ -2958,13 +4064,13 @@
         <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +4078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4D4EF-8AD6-F044-9C90-44FE922B03DE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2994,10 +4100,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -3006,7 +4112,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>101</v>
@@ -3020,13 +4126,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -3035,24 +4141,24 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>107</v>
@@ -3061,50 +4167,50 @@
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>107</v>
@@ -3116,21 +4222,21 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -3139,24 +4245,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>107</v>
@@ -3168,21 +4274,21 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -3191,50 +4297,50 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>107</v>
@@ -3243,24 +4349,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>107</v>
@@ -3269,24 +4375,24 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>107</v>
@@ -3295,24 +4401,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>107</v>
@@ -3324,21 +4430,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3347,24 +4453,24 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>107</v>
@@ -3373,24 +4479,24 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>107</v>
@@ -3399,13 +4505,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -3435,10 +4541,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -3447,7 +4553,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>101</v>
@@ -3461,13 +4567,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -3476,24 +4582,24 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>107</v>
@@ -3502,39 +4608,39 @@
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3542,10 +4648,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>107</v>
@@ -3557,10 +4663,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,10 +4674,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -3583,10 +4689,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3594,10 +4700,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>107</v>
@@ -3609,10 +4715,10 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,10 +4726,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -3632,13 +4738,13 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,10 +4752,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>107</v>
@@ -3661,21 +4767,21 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>107</v>
@@ -3684,50 +4790,50 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>107</v>
@@ -3736,24 +4842,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>107</v>
@@ -3765,21 +4871,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>107</v>
@@ -3791,21 +4897,21 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>107</v>
@@ -3817,21 +4923,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>107</v>
@@ -3840,24 +4946,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
@@ -3866,24 +4972,24 @@
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>107</v>
@@ -3895,10 +5001,10 @@
         <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3906,7 +5012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -3948,7 +5054,7 @@
         <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>95</v>
@@ -3981,7 +5087,7 @@
         <v>104</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4130,7 +5236,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>106</v>
@@ -4152,13 +5258,13 @@
         <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>113</v>
@@ -4178,7 +5284,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>106</v>
@@ -4200,7 +5306,7 @@
         <v>109</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>111</v>
@@ -4226,7 +5332,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
@@ -4248,7 +5354,7 @@
         <v>109</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>111</v>
@@ -4296,13 +5402,13 @@
         <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>113</v>
@@ -4370,7 +5476,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
@@ -4392,7 +5498,7 @@
         <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>111</v>
@@ -4418,7 +5524,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>168</v>
@@ -4440,13 +5546,13 @@
         <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>135</v>
@@ -4466,7 +5572,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
@@ -4514,7 +5620,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>136</v>
@@ -4536,7 +5642,7 @@
         <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>111</v>
@@ -4545,7 +5651,7 @@
         <v>112</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>114</v>
@@ -4562,7 +5668,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>136</v>
@@ -4584,7 +5690,7 @@
         <v>109</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>111</v>
@@ -4593,7 +5699,7 @@
         <v>112</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>114</v>
@@ -4610,10 +5716,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>107</v>
@@ -4632,7 +5738,7 @@
         <v>109</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>111</v>
@@ -4641,7 +5747,7 @@
         <v>112</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>114</v>
@@ -4658,10 +5764,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>107</v>
@@ -4680,7 +5786,7 @@
         <v>132</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>111</v>
@@ -4689,7 +5795,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>114</v>
@@ -4706,10 +5812,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>107</v>
@@ -4728,7 +5834,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>111</v>
@@ -4754,7 +5860,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>118</v>
@@ -4776,7 +5882,7 @@
         <v>109</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>111</v>
@@ -4785,7 +5891,7 @@
         <v>112</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>114</v>
@@ -4802,7 +5908,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>118</v>
@@ -4824,7 +5930,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>111</v>
@@ -4833,7 +5939,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>114</v>
@@ -4850,7 +5956,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>165</v>
@@ -4872,7 +5978,7 @@
         <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>111</v>
@@ -4946,7 +6052,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>160</v>
@@ -4994,7 +6100,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>149</v>
@@ -5016,7 +6122,7 @@
         <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>111</v>
@@ -5090,10 +6196,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>107</v>
@@ -5112,7 +6218,7 @@
         <v>109</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>111</v>
@@ -5121,7 +6227,7 @@
         <v>112</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>114</v>
@@ -5138,10 +6244,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>107</v>
@@ -5160,7 +6266,7 @@
         <v>120</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>111</v>
@@ -5169,7 +6275,7 @@
         <v>112</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>114</v>
@@ -5186,7 +6292,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
@@ -5205,10 +6311,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>111</v>
@@ -5234,7 +6340,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>118</v>
@@ -5256,7 +6362,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>111</v>
@@ -5285,7 +6391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5299,7 +6405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75925B00-4C4E-D14C-921F-FFA3D9BB14A6}">
   <dimension ref="A1:J19"/>
   <sheetViews>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB743271-2AF7-D44C-A822-B4D3B3627CA4}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7DC5E5-840C-D748-8CFA-AF4DA9B61A99}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="SIEM Score Card" sheetId="9" r:id="rId2"/>
-    <sheet name="SIEM" sheetId="3" r:id="rId3"/>
-    <sheet name="SOAR" sheetId="7" r:id="rId4"/>
-    <sheet name="SOC Ops" sheetId="8" r:id="rId5"/>
-    <sheet name="Log Collection" sheetId="2" r:id="rId6"/>
+    <sheet name="SIEM" sheetId="3" r:id="rId2"/>
+    <sheet name="SOAR" sheetId="7" r:id="rId3"/>
+    <sheet name="SOC Ops" sheetId="8" r:id="rId4"/>
+    <sheet name="Log Collection" sheetId="2" r:id="rId5"/>
+    <sheet name="Threat Intel" sheetId="10" r:id="rId6"/>
     <sheet name="Team" sheetId="4" r:id="rId7"/>
     <sheet name="Insider Risk" sheetId="5" r:id="rId8"/>
+    <sheet name="SIEM Score Card" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="553">
   <si>
     <t>Metric Name</t>
   </si>
@@ -1712,6 +1713,18 @@
   </si>
   <si>
     <t>Support various forms of data onboarding</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>Current Platform</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2203,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2577,806 +2590,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A695D-4A44-814A-B27E-25A05BE82082}">
-  <dimension ref="A1:C86"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="C79" s="24"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C80" s="24"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="C84" s="24"/>
-    </row>
-    <row r="86" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -4078,7 +3291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4D4EF-8AD6-F044-9C90-44FE922B03DE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -4519,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -5012,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -6387,6 +5600,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35D593A-9331-BC43-A9AE-0BF9519B27F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6710,4 +5935,1149 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A695D-4A44-814A-B27E-25A05BE82082}">
+  <dimension ref="A1:G86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7DC5E5-840C-D748-8CFA-AF4DA9B61A99}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A24B9BB-BB62-B943-9617-2B817C23005C}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="SOC Ops" sheetId="8" r:id="rId4"/>
     <sheet name="Log Collection" sheetId="2" r:id="rId5"/>
     <sheet name="Threat Intel" sheetId="10" r:id="rId6"/>
-    <sheet name="Team" sheetId="4" r:id="rId7"/>
-    <sheet name="Insider Risk" sheetId="5" r:id="rId8"/>
+    <sheet name="Insider Risk" sheetId="11" r:id="rId7"/>
+    <sheet name="Team" sheetId="4" r:id="rId8"/>
     <sheet name="SIEM Score Card" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="730">
   <si>
     <t>Metric Name</t>
   </si>
@@ -214,94 +214,18 @@
     <t>Administrative</t>
   </si>
   <si>
-    <t>Corporate Policies in place that support monitoring, investigations, and remediation efforts.
-Policies are reviewed for changes
-Feedback is provided to strengthen/enhance policies</t>
-  </si>
-  <si>
-    <t>Partnerships in place with Legal, Employee Relations, and Privacy teams.
-Briefed on new legal and regulatory requirements/considerations
-Ensure process to remediate Insider Threat activity is in place</t>
-  </si>
-  <si>
-    <t>Obtain support from Senior Leadership team, provide regular updates, and solicit feedback</t>
-  </si>
-  <si>
-    <t>Relevant logs are being collected to support Use Cases.
-Log sources are reviewed on a regular basis and updated as required.
-Logging Standards are reviewed on a regular basis and updated as required.</t>
-  </si>
-  <si>
-    <t>Threat Landscape is well documented.
-Reviewed and Updated at regular intervals</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
-    <t>Data Loss Prevention (DLP) tools are in place and being monitored.
-The tool's alert portfolio is reviewed at regular intervals
-The tool is tested on a regular basis to determine effectiveness</t>
-  </si>
-  <si>
-    <t>Use Behavior Analytic (UBA/UEBA) are in place and being monitored.
-The tool's alert portfolio is reviewed at regular intervals
-The tool is tested on a regular basis to determine effectiveness</t>
-  </si>
-  <si>
-    <t>Risk Based Alerting (RBA) framework is in place.
-Risk rules are reviewed at regular intervals
-Risk rules are tested on a regular basis to determine effectiveness</t>
-  </si>
-  <si>
     <t>Custom Detections</t>
   </si>
   <si>
-    <t>Custom detections are being developed and monitored for sensitive file exfiltration.</t>
-  </si>
-  <si>
-    <t>Custom detections are being developed and monitored for rogue administrator activity.
-Possible malicious changes
-Unusual user activity review
-preforming tasks that are out of scope</t>
-  </si>
-  <si>
-    <t>Custom detections are being developed and monitored for unusual file access.
-User list is updated at regular intervals
-Process in place to report unusual/suspicious activity to required teams</t>
-  </si>
-  <si>
-    <t>Monitoring departments with high turn over rates.</t>
-  </si>
-  <si>
-    <t>Custom detections to detect possible compromised accounts.
-new/unusual access behavior
-new/unusual file access</t>
-  </si>
-  <si>
-    <t>Provide enhanced monitoring for employees with Government clearances.</t>
-  </si>
-  <si>
     <t>Training &amp; Education</t>
   </si>
   <si>
-    <t>Provide feedback to address and build awareness for yearly Security training program.</t>
-  </si>
-  <si>
     <t>Operational</t>
   </si>
   <si>
-    <t>Process and document emerging threats and trends.</t>
-  </si>
-  <si>
-    <t>Test detections for functionality and quality assurance.</t>
-  </si>
-  <si>
-    <t>Outreach to high impact Business Units for additional support.
-Proactive monitoring high turnover teams
-Address BU specific concerns</t>
-  </si>
-  <si>
     <t>Compliance/Audit Reddiness</t>
   </si>
   <si>
@@ -1040,9 +964,6 @@
     <t>Expand threat actor profiling capabilities</t>
   </si>
   <si>
-    <t>SOC Operations and Response</t>
-  </si>
-  <si>
     <t>Playbook Development</t>
   </si>
   <si>
@@ -1725,6 +1646,594 @@
   </si>
   <si>
     <t>Current Platform</t>
+  </si>
+  <si>
+    <t>SOC Operations, Response, and Threat Hunting</t>
+  </si>
+  <si>
+    <t>Insider Risk</t>
+  </si>
+  <si>
+    <t>Active monitoring, response plan in place, partnership across busniss</t>
+  </si>
+  <si>
+    <t>Proactive response, streamlined investigations</t>
+  </si>
+  <si>
+    <t>Insider Threat Lead</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Gathering</t>
+  </si>
+  <si>
+    <t>Basic Threat Intelligence</t>
+  </si>
+  <si>
+    <t>Collect and aggregate threat intelligence from various sources, such as open-source feeds and vendor reports.</t>
+  </si>
+  <si>
+    <t>Expand threat intelligence sources; Automate data collection</t>
+  </si>
+  <si>
+    <t>Threat Detection, Situational Awareness</t>
+  </si>
+  <si>
+    <t>Brand Monitoring</t>
+  </si>
+  <si>
+    <t>Monitor for mentions of the organization's brand across the internet to detect potential brand misuse or threats.</t>
+  </si>
+  <si>
+    <t>Integrate additional brand monitoring tools; Develop reporting process for brand threats</t>
+  </si>
+  <si>
+    <t>Brand Protection, Threat Detection</t>
+  </si>
+  <si>
+    <t>Specific Advisory Monitoring</t>
+  </si>
+  <si>
+    <t>Track advisories specific to the organization's industry, region, or technology stack to stay updated on emerging threats.</t>
+  </si>
+  <si>
+    <t>Improve advisory filtering to reduce noise; Automate advisory distribution</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Analysis</t>
+  </si>
+  <si>
+    <t>IOC Analysis</t>
+  </si>
+  <si>
+    <t>Analyze indicators of compromise (IOCs) such as IP addresses, domains, and hashes to determine relevance and potential threats.</t>
+  </si>
+  <si>
+    <t>Automate IOC correlation with internal data; Expand IOC enrichment capabilities</t>
+  </si>
+  <si>
+    <t>Profile known threat actors, including motivations, tactics, and past activities, to understand potential threats to the organization.</t>
+  </si>
+  <si>
+    <t>Expand historical incident data integration; Improve actor profile accuracy</t>
+  </si>
+  <si>
+    <t>Targeted Use Case Development</t>
+  </si>
+  <si>
+    <t>Develop specific use cases for threat intelligence that align with business needs, such as protecting VIPs or critical assets.</t>
+  </si>
+  <si>
+    <t>Collaborate with business units to identify targeted use cases; Refine intelligence requirements</t>
+  </si>
+  <si>
+    <t>Threat Detection, Business Alignment</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Reporting</t>
+  </si>
+  <si>
+    <t>Executive Reports</t>
+  </si>
+  <si>
+    <t>Create high-level threat intelligence reports for executives, summarizing key risks, trends, and emerging threats.</t>
+  </si>
+  <si>
+    <t>Standardize executive report templates; Develop automated report generation capabilities</t>
+  </si>
+  <si>
+    <t>Executive Awareness, Strategic Planning</t>
+  </si>
+  <si>
+    <t>Threat Landscape Reports</t>
+  </si>
+  <si>
+    <t>Provide detailed analysis of the evolving threat landscape, including notable incidents and emerging threat vectors.</t>
+  </si>
+  <si>
+    <t>Develop regular threat landscape reports; Improve data visualization</t>
+  </si>
+  <si>
+    <t>Threat Intelligence, Situational Awareness</t>
+  </si>
+  <si>
+    <t>Advisory Summaries</t>
+  </si>
+  <si>
+    <t>Generate summaries of relevant threat advisories and distribute them to appropriate teams for awareness and action.</t>
+  </si>
+  <si>
+    <t>Automate advisory summary distribution; Create targeted advisory categories</t>
+  </si>
+  <si>
+    <t>Threat Awareness, Risk Management</t>
+  </si>
+  <si>
+    <t>Correlate gathered threat intelligence with internal security data to identify potential incidents and compromises.</t>
+  </si>
+  <si>
+    <t>Automate threat correlation processes; Expand correlation rules</t>
+  </si>
+  <si>
+    <t>Brand Protection Actions</t>
+  </si>
+  <si>
+    <t>Take action based on identified brand threats, such as takedown requests or legal measures to mitigate reputational risks.</t>
+  </si>
+  <si>
+    <t>Develop standardized response procedures for brand threats; Improve takedown efficiency</t>
+  </si>
+  <si>
+    <t>Brand Protection, Incident Management</t>
+  </si>
+  <si>
+    <t>Corporate Policies</t>
+  </si>
+  <si>
+    <t>Corporate policies in place that support monitoring, investigations, and remediation efforts. Policies are reviewed for changes, and feedback is provided to strengthen and enhance policies.</t>
+  </si>
+  <si>
+    <t>HR &amp; Compliance Team</t>
+  </si>
+  <si>
+    <t>Develop a feedback loop to improve policies based on incidents</t>
+  </si>
+  <si>
+    <t>Policy Enforcement, Compliance Monitoring</t>
+  </si>
+  <si>
+    <t>Partnerships</t>
+  </si>
+  <si>
+    <t>Partnerships in place with Legal, Employee Relations, and Privacy teams. Briefed on new legal and regulatory requirements. Ensure processes to remediate Insider Threat activity are in place.</t>
+  </si>
+  <si>
+    <t>HR, Legal, Privacy Teams</t>
+  </si>
+  <si>
+    <t>Expand partnerships to additional departments; Regularize briefing schedule</t>
+  </si>
+  <si>
+    <t>Cross-Department Collaboration, Compliance</t>
+  </si>
+  <si>
+    <t>Senior Leadership Engagement</t>
+  </si>
+  <si>
+    <t>Obtain support from Senior Leadership team, provide regular updates, and solicit feedback to enhance insider threat initiatives.</t>
+  </si>
+  <si>
+    <t>Insider Threat Team</t>
+  </si>
+  <si>
+    <t>Develop formal engagement plan for regular leadership updates</t>
+  </si>
+  <si>
+    <t>Stakeholder Engagement, Executive Support</t>
+  </si>
+  <si>
+    <t>Logging Standards and Collection</t>
+  </si>
+  <si>
+    <t>Relevant logs are being collected to support use cases. Log sources are reviewed and updated regularly. Logging standards are also reviewed regularly.</t>
+  </si>
+  <si>
+    <t>Automate log collection; Implement standardized logging guidelines</t>
+  </si>
+  <si>
+    <t>Data Collection, Threat Detection</t>
+  </si>
+  <si>
+    <t>Threat Landscape Documentation</t>
+  </si>
+  <si>
+    <t>Threat landscape is well documented and reviewed at regular intervals to keep up with emerging threats and changes.</t>
+  </si>
+  <si>
+    <t>Develop visualization of threat landscape trends; Increase review frequency</t>
+  </si>
+  <si>
+    <t>Situational Awareness, Risk Assessment</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention (DLP)</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention tools are in place and actively monitored. The alert portfolio is reviewed regularly and the tool's effectiveness is tested on a consistent basis.</t>
+  </si>
+  <si>
+    <t>IT Security Team</t>
+  </si>
+  <si>
+    <t>Expand DLP coverage; Automate regular tool testing</t>
+  </si>
+  <si>
+    <t>Data Protection, Threat Detection</t>
+  </si>
+  <si>
+    <t>User Behavior Analytics (UBA/UEBA)</t>
+  </si>
+  <si>
+    <t>User Behavior Analytics tools are in place to monitor behavior. Alerts are reviewed and the tool is tested regularly for effectiveness.</t>
+  </si>
+  <si>
+    <t>Integrate UBA with other data sources; Improve anomaly detection algorithms</t>
+  </si>
+  <si>
+    <t>Insider Threat Detection, Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Risk-Based Alerting (RBA)</t>
+  </si>
+  <si>
+    <t>Risk-Based Alerting framework is in place. Risk rules are reviewed and tested regularly to ensure effectiveness.</t>
+  </si>
+  <si>
+    <t>Expand risk-based alerting rules; Regularize risk rule reviews</t>
+  </si>
+  <si>
+    <t>Threat Prioritization, Incident Response</t>
+  </si>
+  <si>
+    <t>Sensitive File Exfiltration</t>
+  </si>
+  <si>
+    <t>Custom detections are being developed to monitor for unauthorized file exfiltration.</t>
+  </si>
+  <si>
+    <t>Expand monitoring to additional data types; Improve detection sensitivity</t>
+  </si>
+  <si>
+    <t>Data Protection, Incident Response</t>
+  </si>
+  <si>
+    <t>Rogue Administrator Activity</t>
+  </si>
+  <si>
+    <t>Custom detections are developed to monitor administrator actions that are out of scope, such as unusual user activity or potentially malicious changes.</t>
+  </si>
+  <si>
+    <t>Develop anomaly-based detections; Expand monitoring of privileged accounts</t>
+  </si>
+  <si>
+    <t>Privilege Misuse Detection, Threat Detection</t>
+  </si>
+  <si>
+    <t>Unusual File Access</t>
+  </si>
+  <si>
+    <t>Custom detections monitor unusual file access patterns, including access by unauthorized users or behaviors that deviate from the norm.</t>
+  </si>
+  <si>
+    <t>Automate alerting for suspicious file access; Develop a baseline of normal activity</t>
+  </si>
+  <si>
+    <t>Threat Detection, Data Security</t>
+  </si>
+  <si>
+    <t>High Turnover Departments</t>
+  </si>
+  <si>
+    <t>Monitoring departments with high turnover rates for potential insider threats and anomalous activity.</t>
+  </si>
+  <si>
+    <t>Implement proactive detection for high-risk departments; Regularize reviews</t>
+  </si>
+  <si>
+    <t>Risk Management, Insider Threat Detection</t>
+  </si>
+  <si>
+    <t>Compromised Account Detection</t>
+  </si>
+  <si>
+    <t>Develop custom detections to identify compromised accounts, including new or unusual access behaviors.</t>
+  </si>
+  <si>
+    <t>Improve detection algorithms; Expand monitoring to all critical assets</t>
+  </si>
+  <si>
+    <t>Account Compromise Detection, Threat Response</t>
+  </si>
+  <si>
+    <t>Security Training Feedback</t>
+  </si>
+  <si>
+    <t>Provide feedback to enhance awareness and build the yearly Security training program.</t>
+  </si>
+  <si>
+    <t>Training &amp; Awareness Team</t>
+  </si>
+  <si>
+    <t>Develop specialized insider threat training modules; Collect feedback from participants</t>
+  </si>
+  <si>
+    <t>Awareness Training, Risk Reduction</t>
+  </si>
+  <si>
+    <t>Threat and Trend Documentation</t>
+  </si>
+  <si>
+    <t>Process and document emerging threats and trends related to insider activity, including their impact on business processes.</t>
+  </si>
+  <si>
+    <t>Develop detailed documentation standards; Improve accessibility for business units</t>
+  </si>
+  <si>
+    <t>Threat Documentation, Risk Management</t>
+  </si>
+  <si>
+    <t>Detection Testing</t>
+  </si>
+  <si>
+    <t>Test custom detections for functionality and quality assurance to ensure effectiveness in real scenarios.</t>
+  </si>
+  <si>
+    <t>Quality Assurance Team</t>
+  </si>
+  <si>
+    <t>Automate testing procedures; Establish regular testing intervals</t>
+  </si>
+  <si>
+    <t>Quality Assurance, Incident Response</t>
+  </si>
+  <si>
+    <t>Business Unit Outreach</t>
+  </si>
+  <si>
+    <t>Outreach to high-impact Business Units for support, including proactive monitoring and addressing specific concerns.</t>
+  </si>
+  <si>
+    <t>Develop a formal outreach program; Address BU-specific risks in outreach efforts</t>
+  </si>
+  <si>
+    <t>Stakeholder Engagement, Risk Mitigation</t>
+  </si>
+  <si>
+    <t>Team Engagement</t>
+  </si>
+  <si>
+    <t>Regular Team Events</t>
+  </si>
+  <si>
+    <t>Regular team events and activities to keep employees engaged and foster team bonding.</t>
+  </si>
+  <si>
+    <t>HR Team</t>
+  </si>
+  <si>
+    <t>Organize more diverse events; Solicit feedback on event types</t>
+  </si>
+  <si>
+    <t>Team Engagement, Morale Boost</t>
+  </si>
+  <si>
+    <t>Recognition Programs</t>
+  </si>
+  <si>
+    <t>Implement recognition programs to appreciate individual and team achievements.</t>
+  </si>
+  <si>
+    <t>HR &amp; Team Leads</t>
+  </si>
+  <si>
+    <t>Develop a structured recognition plan; Include peer-to-peer recognition</t>
+  </si>
+  <si>
+    <t>Employee Satisfaction, Motivation</t>
+  </si>
+  <si>
+    <t>Training &amp; Development</t>
+  </si>
+  <si>
+    <t>Skill Development Training</t>
+  </si>
+  <si>
+    <t>Provide regular training to develop technical and soft skills, including certifications and workshops.</t>
+  </si>
+  <si>
+    <t>Training &amp; Development Team</t>
+  </si>
+  <si>
+    <t>Expand training offerings based on team needs; Develop personalized growth plans</t>
+  </si>
+  <si>
+    <t>Skill Enhancement, Career Growth</t>
+  </si>
+  <si>
+    <t>Cross-Training Opportunities</t>
+  </si>
+  <si>
+    <t>Facilitate cross-training sessions to share knowledge across different roles and improve adaptability.</t>
+  </si>
+  <si>
+    <t>Team Leads</t>
+  </si>
+  <si>
+    <t>Schedule regular cross-training sessions; Encourage participation in other domains</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing, Team Resilience</t>
+  </si>
+  <si>
+    <t>Work-Life Balance</t>
+  </si>
+  <si>
+    <t>Flexible Work Hours</t>
+  </si>
+  <si>
+    <t>Offer flexible work hours to allow team members to balance personal and professional responsibilities.</t>
+  </si>
+  <si>
+    <t>Expand options for flexible hours; Gather feedback from employees on work-life balance</t>
+  </si>
+  <si>
+    <t>Employee Well-being, Retention</t>
+  </si>
+  <si>
+    <t>Remote Work Support</t>
+  </si>
+  <si>
+    <t>Provide resources and support for remote work, including equipment and allowances for remote productivity.</t>
+  </si>
+  <si>
+    <t>IT &amp; HR Team</t>
+  </si>
+  <si>
+    <t>Improve remote work setup based on feedback; Provide ergonomic support</t>
+  </si>
+  <si>
+    <t>Work-Life Balance, Productivity</t>
+  </si>
+  <si>
+    <t>Time Off</t>
+  </si>
+  <si>
+    <t>Encouraging Time Off</t>
+  </si>
+  <si>
+    <t>Encourage team members to take time off to prevent burnout and maintain productivity.</t>
+  </si>
+  <si>
+    <t>Team Leads &amp; HR Team</t>
+  </si>
+  <si>
+    <t>Develop a communication strategy promoting the importance of time off</t>
+  </si>
+  <si>
+    <t>Employee Well-being, Burnout Prevention</t>
+  </si>
+  <si>
+    <t>Project Engagement</t>
+  </si>
+  <si>
+    <t>Project Selection Input</t>
+  </si>
+  <si>
+    <t>Allow team members to provide input on the types of projects they are interested in working on.</t>
+  </si>
+  <si>
+    <t>Project Managers</t>
+  </si>
+  <si>
+    <t>Develop a system for capturing preferences; Align projects with individual growth goals</t>
+  </si>
+  <si>
+    <t>Employee Satisfaction, Project Ownership</t>
+  </si>
+  <si>
+    <t>Regular Project Updates</t>
+  </si>
+  <si>
+    <t>Provide regular updates on project progress, including challenges and wins, to keep everyone informed.</t>
+  </si>
+  <si>
+    <t>Standardize the format for project updates; Solicit feedback on update content</t>
+  </si>
+  <si>
+    <t>Transparency, Team Engagement</t>
+  </si>
+  <si>
+    <t>Personal Growth &amp; Development</t>
+  </si>
+  <si>
+    <t>Individual Development Plans</t>
+  </si>
+  <si>
+    <t>Work with team members to create individual development plans tailored to their career goals.</t>
+  </si>
+  <si>
+    <t>Formalize development plan reviews; Link growth plans with training opportunities</t>
+  </si>
+  <si>
+    <t>Career Growth, Retention</t>
+  </si>
+  <si>
+    <t>Mentorship Program</t>
+  </si>
+  <si>
+    <t>Establish a mentorship program pairing experienced employees with newer team members for guidance.</t>
+  </si>
+  <si>
+    <t>HR &amp; Senior Team Members</t>
+  </si>
+  <si>
+    <t>Expand mentorship opportunities; Formalize mentor-mentee expectations</t>
+  </si>
+  <si>
+    <t>Knowledge Transfer, Employee Engagement</t>
+  </si>
+  <si>
+    <t>Hiring &amp; Recruitment</t>
+  </si>
+  <si>
+    <t>Competitive Pay</t>
+  </si>
+  <si>
+    <t>Offer competitive pay aligned with industry standards to attract and retain top talent.</t>
+  </si>
+  <si>
+    <t>Conduct regular market salary reviews; Adjust pay to meet or exceed benchmarks</t>
+  </si>
+  <si>
+    <t>Talent Attraction, Employee Retention</t>
+  </si>
+  <si>
+    <t>Benefits Package</t>
+  </si>
+  <si>
+    <t>Provide comprehensive benefits, including health insurance, retirement plans, and wellness programs.</t>
+  </si>
+  <si>
+    <t>Regularly review and enhance benefits based on employee needs; Benchmark against competitors</t>
+  </si>
+  <si>
+    <t>Employee Well-being, Talent Retention</t>
+  </si>
+  <si>
+    <t>Hiring Process Improvement</t>
+  </si>
+  <si>
+    <t>Continuously improve the hiring process to ensure efficiency, inclusivity, and a positive candidate experience.</t>
+  </si>
+  <si>
+    <t>Recruitment Team</t>
+  </si>
+  <si>
+    <t>Collect candidate feedback; Implement improvements for a streamlined hiring process</t>
+  </si>
+  <si>
+    <t>Candidate Experience, Hiring Efficiency</t>
+  </si>
+  <si>
+    <t>Onboarding Experience</t>
+  </si>
+  <si>
+    <t>Develop a structured onboarding program to help new hires integrate into the company culture and become productive quickly.</t>
+  </si>
+  <si>
+    <t>Automate onboarding processes; Provide tailored onboarding content for different roles</t>
+  </si>
+  <si>
+    <t>New Hire Integration, Employee Engagement</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1829,15 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,15 +2700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="66" style="9" customWidth="1"/>
@@ -2225,51 +2725,51 @@
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>86</v>
+      <c r="K1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -2311,7 +2811,7 @@
     </row>
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2320,16 +2820,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
@@ -2346,7 +2846,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>534</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -2408,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2445,34 +2945,34 @@
         <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>536</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>537</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
@@ -2488,102 +2988,137 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>51</v>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="17" t="s">
-        <v>30</v>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="9" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2599,691 +3134,691 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="20.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3313,120 +3848,120 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -3435,50 +3970,50 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -3487,154 +4022,154 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
@@ -3643,88 +4178,88 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3754,106 +4289,106 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3861,13 +4396,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -3876,10 +4411,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3887,13 +4422,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
@@ -3902,10 +4437,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3913,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -3928,10 +4463,10 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3939,25 +4474,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3965,13 +4500,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -3980,102 +4515,102 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
@@ -4084,24 +4619,24 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
@@ -4110,24 +4645,24 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -4136,76 +4671,76 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -4214,10 +4749,10 @@
         <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4255,66 +4790,66 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -4324,28 +4859,28 @@
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>45</v>
@@ -4353,16 +4888,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -4372,28 +4907,28 @@
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>41</v>
@@ -4401,47 +4936,47 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>39</v>
@@ -4449,16 +4984,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -4468,28 +5003,28 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>41</v>
@@ -4497,16 +5032,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -4516,28 +5051,28 @@
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>45</v>
@@ -4545,16 +5080,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -4564,28 +5099,28 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>45</v>
@@ -4593,16 +5128,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -4612,28 +5147,28 @@
         <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>43</v>
@@ -4641,16 +5176,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -4660,28 +5195,28 @@
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>45</v>
@@ -4689,16 +5224,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -4708,28 +5243,28 @@
         <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>45</v>
@@ -4737,16 +5272,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -4756,28 +5291,28 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>43</v>
@@ -4785,16 +5320,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -4804,28 +5339,28 @@
         <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>41</v>
@@ -4833,16 +5368,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -4852,28 +5387,28 @@
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>43</v>
@@ -4881,16 +5416,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -4900,28 +5435,28 @@
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>45</v>
@@ -4929,16 +5464,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -4948,28 +5483,28 @@
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>45</v>
@@ -4977,16 +5512,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -4996,28 +5531,28 @@
         <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>45</v>
@@ -5025,16 +5560,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -5044,28 +5579,28 @@
         <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>45</v>
@@ -5073,16 +5608,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -5092,28 +5627,28 @@
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>45</v>
@@ -5121,16 +5656,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -5140,28 +5675,28 @@
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>45</v>
@@ -5169,16 +5704,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -5188,28 +5723,28 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>45</v>
@@ -5217,16 +5752,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -5236,28 +5771,28 @@
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>45</v>
@@ -5265,16 +5800,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -5284,28 +5819,28 @@
         <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>43</v>
@@ -5313,16 +5848,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -5332,28 +5867,28 @@
         <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>45</v>
@@ -5361,16 +5896,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -5380,28 +5915,28 @@
         <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>41</v>
@@ -5409,16 +5944,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -5428,28 +5963,28 @@
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>43</v>
@@ -5457,16 +5992,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -5476,28 +6011,28 @@
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>41</v>
@@ -5505,47 +6040,47 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>45</v>
@@ -5553,16 +6088,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -5572,28 +6107,28 @@
         <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>45</v>
@@ -5606,33 +6141,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35D593A-9331-BC43-A9AE-0BF9519B27F6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75925B00-4C4E-D14C-921F-FFA3D9BB14A6}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5640,299 +6149,1263 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACE9B05-E70F-CB4F-98FD-3E4150D258C0}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>65</v>
+      <c r="F6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+        <v>698</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>712</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+        <v>713</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>712</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>721</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="J19" s="9"/>
+        <v>726</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A17:A19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5941,1115 +7414,1115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A695D-4A44-814A-B27E-25A05BE82082}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="43.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C20" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="C35" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="C54" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="C56" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="C57" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B32" s="25" t="s">
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C58" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="B35" s="24" t="s">
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="B66" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C66" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B48" s="25" t="s">
+      <c r="C67" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="24" t="s">
+      <c r="B69" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C69" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="C70" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B57" s="24" t="s">
+      <c r="C71" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="B58" s="25" t="s">
+      <c r="B74" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C74" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C62" s="24" t="s">
+      <c r="C75" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C63" s="24" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+      <c r="C78" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="24" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
+      <c r="A86" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A24B9BB-BB62-B943-9617-2B817C23005C}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7E04A1-880C-9444-867F-2BE22F32DA86}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Threat Intel" sheetId="10" r:id="rId6"/>
     <sheet name="Insider Risk" sheetId="11" r:id="rId7"/>
     <sheet name="Team" sheetId="4" r:id="rId8"/>
-    <sheet name="SIEM Score Card" sheetId="9" r:id="rId9"/>
+    <sheet name="SIEM Score Card" sheetId="12" r:id="rId9"/>
+    <sheet name="Email Security Score Card" sheetId="13" r:id="rId10"/>
+    <sheet name="Network Score Card" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="874">
   <si>
     <t>Metric Name</t>
   </si>
@@ -499,9 +501,6 @@
     <t>Endpoint</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
     <t>Audit</t>
   </si>
   <si>
@@ -511,6 +510,9 @@
     <t>Identity</t>
   </si>
   <si>
+    <t>Automation</t>
+  </si>
+  <si>
     <t>Business</t>
   </si>
   <si>
@@ -1384,12 +1386,6 @@
     <t>Search Functionality</t>
   </si>
   <si>
-    <t>Ability to upload a csv file to be used in the search</t>
-  </si>
-  <si>
-    <t>Ability to save results in a csv file to be used in additional searches or export the data from the platform</t>
-  </si>
-  <si>
     <t>Parse Using Regex</t>
   </si>
   <si>
@@ -1420,12 +1416,6 @@
     <t>Ability to create scheduled reports/alerts to perform additional actions</t>
   </si>
   <si>
-    <t>Core Feature</t>
-  </si>
-  <si>
-    <t>A well defined and documented search language</t>
-  </si>
-  <si>
     <t>Data Visualizations</t>
   </si>
   <si>
@@ -1450,9 +1440,6 @@
     <t>Custom Time Ranges</t>
   </si>
   <si>
-    <t>Custom time ranges</t>
-  </si>
-  <si>
     <t>Drill-Down</t>
   </si>
   <si>
@@ -1468,39 +1455,21 @@
     <t>Color Coded Visualization</t>
   </si>
   <si>
-    <t>Add color coded visualizations based on field values</t>
-  </si>
-  <si>
     <t>Data Processing</t>
   </si>
   <si>
     <t>Data Models</t>
   </si>
   <si>
-    <t>Data Models to reduce data to smaller set to allow faster searches on normalized data sets.</t>
-  </si>
-  <si>
     <t>Common Information Model</t>
   </si>
   <si>
-    <t>Ability to apply a Common Information Model to data sets to normalize data sets to allow for uniform searches.</t>
-  </si>
-  <si>
-    <t>Ability to provide role-based access to data sets</t>
-  </si>
-  <si>
     <t>New Indexes</t>
   </si>
   <si>
-    <t>Ability to create new indexes based on output of search results</t>
-  </si>
-  <si>
     <t>Inter-Operability</t>
   </si>
   <si>
-    <t>Ability to send/receive data to other tools</t>
-  </si>
-  <si>
     <t>Advanced Features Sets</t>
   </si>
   <si>
@@ -1513,12 +1482,6 @@
     <t>Risk Modifiers</t>
   </si>
   <si>
-    <t>Risk Modifiers to increase/decrease set score based on defined criteria</t>
-  </si>
-  <si>
-    <t>Ability to create a Risk index/ Risk Data Model to aggregate risk events</t>
-  </si>
-  <si>
     <t>MITRE ATTACK Framework</t>
   </si>
   <si>
@@ -1528,57 +1491,27 @@
     <t>Intelligence Feeds</t>
   </si>
   <si>
-    <t>Framework for managing threat intel feeds</t>
-  </si>
-  <si>
     <t>Alert Management</t>
   </si>
   <si>
     <t>Unified Alert View</t>
   </si>
   <si>
-    <t>Single pane of glass to see and manage all alerts that have been triggered</t>
-  </si>
-  <si>
     <t>Alert Status Management</t>
   </si>
   <si>
-    <t>Ability to change status of alerts as they progress through investigation</t>
-  </si>
-  <si>
     <t>Alert Enrichment</t>
   </si>
   <si>
-    <t>Alert enrichment via asset/user data, drilldowns, threat intel, etc</t>
-  </si>
-  <si>
-    <t>Ability to easily create new alerts</t>
-  </si>
-  <si>
-    <t>Vendor Provided content packs that provide prebuilt detections</t>
-  </si>
-  <si>
-    <t>Role based access to alert creation, modification and deletion</t>
-  </si>
-  <si>
     <t>Version control tracking for detections</t>
   </si>
   <si>
     <t>SOAR Integration</t>
   </si>
   <si>
-    <t>Integration with Automation Platforms</t>
-  </si>
-  <si>
-    <t>Ability to send/receive events with Automation platforms</t>
-  </si>
-  <si>
     <t>Search from SOAR</t>
   </si>
   <si>
-    <t>Ability to perform addition searches from SOAR platform</t>
-  </si>
-  <si>
     <t>Asset and Identities</t>
   </si>
   <si>
@@ -1600,9 +1533,6 @@
     <t>Ability to import identities</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
     <t>Information Sharing</t>
   </si>
   <si>
@@ -1618,21 +1548,12 @@
     <t>Ability to stand up Dev environment without additional cost</t>
   </si>
   <si>
-    <t>Role based access</t>
-  </si>
-  <si>
     <t>Restrict access to indexes/data based on access requirements</t>
   </si>
   <si>
-    <t>Integration with Log Data Processor</t>
-  </si>
-  <si>
     <t>Correlation Searches</t>
   </si>
   <si>
-    <t>Allow Admins to audit user actions</t>
-  </si>
-  <si>
     <t>Support various forms of data onboarding</t>
   </si>
   <si>
@@ -2234,13 +2155,526 @@
   </si>
   <si>
     <t>New Hire Integration, Employee Engagement</t>
+  </si>
+  <si>
+    <t>Ability to upload a CSV file to be used in the search</t>
+  </si>
+  <si>
+    <t>Ability to save results in a CSV file for additional searches or export</t>
+  </si>
+  <si>
+    <t>A well-defined and documented search language</t>
+  </si>
+  <si>
+    <t>Custom time ranges for visualizations</t>
+  </si>
+  <si>
+    <t>Add color-coded visualizations based on field values</t>
+  </si>
+  <si>
+    <t>Reduce data to smaller sets for faster searches on normalized data sets</t>
+  </si>
+  <si>
+    <t>Apply a Common Information Model to data sets to normalize searches</t>
+  </si>
+  <si>
+    <t>Provide role-based access to data sets</t>
+  </si>
+  <si>
+    <t>Create new indexes based on output of search results</t>
+  </si>
+  <si>
+    <t>Ability to send/receive data to/from other tools</t>
+  </si>
+  <si>
+    <t>Risk Modifiers to increase/decrease risk score based on criteria</t>
+  </si>
+  <si>
+    <t>Risk Index/Data Model</t>
+  </si>
+  <si>
+    <t>Ability to create a Risk Index/Risk Data Model to aggregate events</t>
+  </si>
+  <si>
+    <t>Framework for managing threat intelligence feeds</t>
+  </si>
+  <si>
+    <t>Single pane of glass to see and manage all alerts triggered</t>
+  </si>
+  <si>
+    <t>Change status of alerts during investigation</t>
+  </si>
+  <si>
+    <t>Enrich alerts via asset/user data, drilldowns, threat intel, etc</t>
+  </si>
+  <si>
+    <t>New Alerts Creation</t>
+  </si>
+  <si>
+    <t>Easily create new alerts</t>
+  </si>
+  <si>
+    <t>Content Packs</t>
+  </si>
+  <si>
+    <t>Vendor-provided content packs with prebuilt detections</t>
+  </si>
+  <si>
+    <t>Role-Based Alert Management</t>
+  </si>
+  <si>
+    <t>Role-based access to alert creation, modification, and deletion</t>
+  </si>
+  <si>
+    <t>Version Control for Detections</t>
+  </si>
+  <si>
+    <t>Automation Platforms Integration</t>
+  </si>
+  <si>
+    <t>Send/receive events with automation platforms</t>
+  </si>
+  <si>
+    <t>Ability to perform additional searches from SOAR platform</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>DevOps Environment</t>
+  </si>
+  <si>
+    <t>Log Data Processor Integration</t>
+  </si>
+  <si>
+    <t>Integration with log data processors</t>
+  </si>
+  <si>
+    <t>Ability to perform correlation searches across data sets</t>
+  </si>
+  <si>
+    <t>Allow admins to audit user actions</t>
+  </si>
+  <si>
+    <t>Data Onboarding Support</t>
+  </si>
+  <si>
+    <t>Core Email Security Features</t>
+  </si>
+  <si>
+    <t>Spam Filtering</t>
+  </si>
+  <si>
+    <t>Ability to filter spam emails effectively</t>
+  </si>
+  <si>
+    <t>Phishing Detection</t>
+  </si>
+  <si>
+    <t>Detect and quarantine phishing emails</t>
+  </si>
+  <si>
+    <t>Malware Attachment Detection</t>
+  </si>
+  <si>
+    <t>Detect malicious attachments and remove them from emails</t>
+  </si>
+  <si>
+    <t>URL Protection</t>
+  </si>
+  <si>
+    <t>Protect users from malicious URLs embedded in emails</t>
+  </si>
+  <si>
+    <t>Domain Spoofing Prevention</t>
+  </si>
+  <si>
+    <t>Detect and block emails with spoofed domains</t>
+  </si>
+  <si>
+    <t>DKIM Enforcement</t>
+  </si>
+  <si>
+    <t>Enforce DomainKeys Identified Mail (DKIM) to validate email integrity</t>
+  </si>
+  <si>
+    <t>SPF Enforcement</t>
+  </si>
+  <si>
+    <t>Enforce Sender Policy Framework (SPF) to verify sending server authenticity</t>
+  </si>
+  <si>
+    <t>DMARC Enforcement</t>
+  </si>
+  <si>
+    <t>Enforce Domain-based Message Authentication, Reporting &amp; Conformance (DMARC) to prevent domain spoofing</t>
+  </si>
+  <si>
+    <t>Integrate threat intelligence feeds for updated phishing campaigns</t>
+  </si>
+  <si>
+    <t>Phishing Indicators Update</t>
+  </si>
+  <si>
+    <t>Regular updates of phishing indicators such as domains, IPs, and URLs</t>
+  </si>
+  <si>
+    <t>User Awareness &amp; Training</t>
+  </si>
+  <si>
+    <t>Phishing Simulation</t>
+  </si>
+  <si>
+    <t>Conduct phishing simulation campaigns to educate employees</t>
+  </si>
+  <si>
+    <t>User Training Modules</t>
+  </si>
+  <si>
+    <t>Provide user training modules on email security and phishing awareness</t>
+  </si>
+  <si>
+    <t>Reporting Button</t>
+  </si>
+  <si>
+    <t>Provide an easy-to-use button for reporting suspicious emails</t>
+  </si>
+  <si>
+    <t>Automated Response Capabilities</t>
+  </si>
+  <si>
+    <t>Automated Quarantine</t>
+  </si>
+  <si>
+    <t>Automatically quarantine emails identified as phishing or spam</t>
+  </si>
+  <si>
+    <t>Remediation Playbooks</t>
+  </si>
+  <si>
+    <t>Pre-built remediation playbooks to handle phishing incidents</t>
+  </si>
+  <si>
+    <t>Policy Management</t>
+  </si>
+  <si>
+    <t>Customizable Policies</t>
+  </si>
+  <si>
+    <t>Ability to create customizable policies for filtering and protection</t>
+  </si>
+  <si>
+    <t>Role-based access to manage email security policies</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Analytics</t>
+  </si>
+  <si>
+    <t>Dashboard for Threat Monitoring</t>
+  </si>
+  <si>
+    <t>Real-time dashboard to monitor threats and email security status</t>
+  </si>
+  <si>
+    <t>Reporting Capabilities</t>
+  </si>
+  <si>
+    <t>Generate reports on phishing, spam, and other email threats</t>
+  </si>
+  <si>
+    <t>Provide executive-level summaries for email security</t>
+  </si>
+  <si>
+    <t>Incident Management</t>
+  </si>
+  <si>
+    <t>Incident Response Workflow</t>
+  </si>
+  <si>
+    <t>Ability to define and manage incident response workflows for email threats</t>
+  </si>
+  <si>
+    <t>Alerting for Critical Incidents</t>
+  </si>
+  <si>
+    <t>Trigger alerts for critical incidents detected in emails</t>
+  </si>
+  <si>
+    <t>Integration with SOAR</t>
+  </si>
+  <si>
+    <t>Automated Playbook Execution</t>
+  </si>
+  <si>
+    <t>Execute automated playbooks in response to detected phishing incidents</t>
+  </si>
+  <si>
+    <t>Threat Enrichment</t>
+  </si>
+  <si>
+    <t>Enrich email threats with additional data from external sources</t>
+  </si>
+  <si>
+    <t>Miscellaneous Features</t>
+  </si>
+  <si>
+    <t>Secure Email Gateway</t>
+  </si>
+  <si>
+    <t>Secure email gateway capabilities to inspect inbound and outbound traffic</t>
+  </si>
+  <si>
+    <t>Archiving and Compliance</t>
+  </si>
+  <si>
+    <t>Archive emails and ensure compliance with industry standards</t>
+  </si>
+  <si>
+    <t>Integration with M365 or GSuite</t>
+  </si>
+  <si>
+    <t>Seamless integration with popular platforms like Microsoft 365 or GSuite</t>
+  </si>
+  <si>
+    <t>Information Sharing Community</t>
+  </si>
+  <si>
+    <t>Participate in community forums for threat information sharing</t>
+  </si>
+  <si>
+    <t>Free Training Availability</t>
+  </si>
+  <si>
+    <t>Availability of free training materials for email security awareness</t>
+  </si>
+  <si>
+    <t>Audit Logs for Admin Actions</t>
+  </si>
+  <si>
+    <t>Maintain audit logs for administrative actions on the email security platform</t>
+  </si>
+  <si>
+    <t>User Activity Monitoring</t>
+  </si>
+  <si>
+    <t>Monitor user activity related to email security actions</t>
+  </si>
+  <si>
+    <t>Role-Based Admin Access</t>
+  </si>
+  <si>
+    <t>Restrict admin actions based on roles to ensure appropriate control</t>
+  </si>
+  <si>
+    <t>Intrusion Detection System (IDS)</t>
+  </si>
+  <si>
+    <t>Network Traffic Analysis</t>
+  </si>
+  <si>
+    <t>Ability to monitor and analyze network traffic for suspicious activities</t>
+  </si>
+  <si>
+    <t>Signature-Based Detection</t>
+  </si>
+  <si>
+    <t>Use of signature-based detection methods to identify known threats</t>
+  </si>
+  <si>
+    <t>Anomaly-Based Detection</t>
+  </si>
+  <si>
+    <t>Use of anomaly-based detection to identify unusual network behavior</t>
+  </si>
+  <si>
+    <t>Packet Capture &amp; Storage</t>
+  </si>
+  <si>
+    <t>Full Packet Capture</t>
+  </si>
+  <si>
+    <t>Ability to capture full network packets for detailed analysis</t>
+  </si>
+  <si>
+    <t>Long-Term Storage</t>
+  </si>
+  <si>
+    <t>Store packet captures for long-term forensics and analysis</t>
+  </si>
+  <si>
+    <t>Indexed Packet Search</t>
+  </si>
+  <si>
+    <t>Ability to search packet captures using indexed search capabilities</t>
+  </si>
+  <si>
+    <t>Filtering &amp; Blocking Policies</t>
+  </si>
+  <si>
+    <t>Layer 7 Application Filtering</t>
+  </si>
+  <si>
+    <t>Ability to filter traffic based on application layer information</t>
+  </si>
+  <si>
+    <t>Custom Block/Allow Lists</t>
+  </si>
+  <si>
+    <t>Ability to create custom block/allow lists for network traffic</t>
+  </si>
+  <si>
+    <t>Geo-IP Filtering</t>
+  </si>
+  <si>
+    <t>Block or allow traffic based on geographic IP location</t>
+  </si>
+  <si>
+    <t>Dynamic Block List Updates</t>
+  </si>
+  <si>
+    <t>Automatically update block lists based on threat intelligence</t>
+  </si>
+  <si>
+    <t>Allow/Deny List Automation</t>
+  </si>
+  <si>
+    <t>Automation to add IP addresses or domains to allow/deny lists based on criteria</t>
+  </si>
+  <si>
+    <t>Network Threat Feeds</t>
+  </si>
+  <si>
+    <t>Integrate threat intelligence feeds for network threat detection</t>
+  </si>
+  <si>
+    <t>Threat Indicator Correlation</t>
+  </si>
+  <si>
+    <t>Correlate threat indicators with network traffic to detect threats</t>
+  </si>
+  <si>
+    <t>Network Access Control (NAC)</t>
+  </si>
+  <si>
+    <t>Role-Based Network Access</t>
+  </si>
+  <si>
+    <t>Implement role-based network access policies to limit user access</t>
+  </si>
+  <si>
+    <t>Endpoint Compliance Checks</t>
+  </si>
+  <si>
+    <t>Check endpoint compliance before granting network access</t>
+  </si>
+  <si>
+    <t>DDoS Protection</t>
+  </si>
+  <si>
+    <t>Traffic Scrubbing</t>
+  </si>
+  <si>
+    <t>Ability to scrub malicious traffic during a Distributed Denial of Service (DDoS) attack</t>
+  </si>
+  <si>
+    <t>Real-Time Monitoring</t>
+  </si>
+  <si>
+    <t>Monitor traffic in real-time for signs of DDoS attacks</t>
+  </si>
+  <si>
+    <t>Automated Mitigation</t>
+  </si>
+  <si>
+    <t>Automatically mitigate DDoS attacks based on pre-defined thresholds</t>
+  </si>
+  <si>
+    <t>VPN and Encryption</t>
+  </si>
+  <si>
+    <t>Secure VPN Access</t>
+  </si>
+  <si>
+    <t>Provide secure VPN access for remote users</t>
+  </si>
+  <si>
+    <t>Encryption Standards</t>
+  </si>
+  <si>
+    <t>Ensure encryption standards such as AES-256 for secure communication</t>
+  </si>
+  <si>
+    <t>Firewall Management</t>
+  </si>
+  <si>
+    <t>Stateful Inspection</t>
+  </si>
+  <si>
+    <t>Perform stateful inspection of network traffic for deeper analysis</t>
+  </si>
+  <si>
+    <t>Zone-Based Segmentation</t>
+  </si>
+  <si>
+    <t>Segment network using zone-based firewall rules</t>
+  </si>
+  <si>
+    <t>High Availability Configurations</t>
+  </si>
+  <si>
+    <t>Support high availability and redundancy in firewall setups</t>
+  </si>
+  <si>
+    <t>Network Traffic Visualization</t>
+  </si>
+  <si>
+    <t>Visualize network traffic for easy understanding of flow and potential threats</t>
+  </si>
+  <si>
+    <t>Alerting for Network Anomalies</t>
+  </si>
+  <si>
+    <t>Trigger alerts for any detected network anomalies</t>
+  </si>
+  <si>
+    <t>Dashboard for Network Security</t>
+  </si>
+  <si>
+    <t>Provide a real-time dashboard for monitoring network security posture</t>
+  </si>
+  <si>
+    <t>Integration with SIEM</t>
+  </si>
+  <si>
+    <t>Integrate with SIEM for centralized monitoring and correlation of network events</t>
+  </si>
+  <si>
+    <t>API Integration</t>
+  </si>
+  <si>
+    <t>Provide API for integration with other security tools</t>
+  </si>
+  <si>
+    <t>Audit Logging</t>
+  </si>
+  <si>
+    <t>Maintain audit logs of changes to network security configurations</t>
+  </si>
+  <si>
+    <t>Restrict administrative actions based on roles</t>
+  </si>
+  <si>
+    <t>Configuration Backups</t>
+  </si>
+  <si>
+    <t>Regularly backup network security configurations for quick recovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2262,25 +2696,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFB6C2CF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2318,7 +2733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2356,16 +2771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2846,7 +3251,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -2954,7 +3359,7 @@
     </row>
     <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -2963,16 +3368,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
@@ -3120,6 +3525,1041 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845154AF-6D8C-3D4D-95A4-B6C1A8B0AE02}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70441F6C-DE92-6D4E-A33D-1A27DEB7080C}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A28:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5467,7 +6907,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>89</v>
@@ -5515,7 +6955,7 @@
         <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>89</v>
@@ -5563,7 +7003,7 @@
         <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>89</v>
@@ -6187,13 +7627,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -6205,21 +7645,21 @@
         <v>217</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>214</v>
@@ -6231,21 +7671,21 @@
         <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -6257,7 +7697,7 @@
         <v>217</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>416</v>
@@ -6265,13 +7705,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -6283,7 +7723,7 @@
         <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>218</v>
@@ -6291,13 +7731,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>214</v>
@@ -6309,7 +7749,7 @@
         <v>217</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>412</v>
@@ -6317,13 +7757,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>214</v>
@@ -6335,21 +7775,21 @@
         <v>217</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -6361,21 +7801,21 @@
         <v>361</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>89</v>
@@ -6387,21 +7827,21 @@
         <v>217</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -6413,10 +7853,10 @@
         <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6427,7 +7867,7 @@
         <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -6439,7 +7879,7 @@
         <v>223</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>218</v>
@@ -6450,10 +7890,10 @@
         <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>214</v>
@@ -6465,10 +7905,10 @@
         <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -6527,10 +7967,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -6539,13 +7979,13 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6553,10 +7993,10 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>214</v>
@@ -6565,13 +8005,13 @@
         <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6579,10 +8019,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -6591,13 +8031,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6605,10 +8045,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -6620,10 +8060,10 @@
         <v>376</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6631,10 +8071,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -6646,10 +8086,10 @@
         <v>217</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6657,10 +8097,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -6669,13 +8109,13 @@
         <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6683,10 +8123,10 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -6695,13 +8135,13 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6709,10 +8149,10 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>214</v>
@@ -6724,10 +8164,10 @@
         <v>376</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6735,10 +8175,10 @@
         <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -6747,13 +8187,13 @@
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6761,10 +8201,10 @@
         <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>214</v>
@@ -6773,13 +8213,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6787,10 +8227,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -6799,13 +8239,13 @@
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6813,10 +8253,10 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -6825,13 +8265,13 @@
         <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6839,10 +8279,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>214</v>
@@ -6851,13 +8291,13 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6865,10 +8305,10 @@
         <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -6877,13 +8317,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6891,10 +8331,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -6903,13 +8343,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6917,10 +8357,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
@@ -6929,13 +8369,13 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6943,10 +8383,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>89</v>
@@ -6955,13 +8395,13 @@
         <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6973,7 +8413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -7017,13 +8457,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -7032,24 +8472,24 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>214</v>
@@ -7058,24 +8498,24 @@
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -7084,24 +8524,24 @@
         <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>214</v>
@@ -7110,24 +8550,24 @@
         <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -7136,24 +8576,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -7162,24 +8602,24 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -7188,24 +8628,24 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>214</v>
@@ -7214,24 +8654,24 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -7240,24 +8680,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -7266,24 +8706,24 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>214</v>
@@ -7292,24 +8732,24 @@
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -7318,24 +8758,24 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
@@ -7344,24 +8784,24 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>214</v>
@@ -7370,24 +8810,24 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -7396,13 +8836,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -7411,1146 +8851,721 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018A695D-4A44-814A-B27E-25A05BE82082}">
-  <dimension ref="A1:G86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G84"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>532</v>
+      <c r="D1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="C4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B5" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="C9" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="B14" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="B32" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="B38" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="A46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-    </row>
-    <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7E04A1-880C-9444-867F-2BE22F32DA86}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDA7CF3-A4B7-C140-BC5A-72691718D4DE}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Threat Intel" sheetId="10" r:id="rId6"/>
     <sheet name="Insider Risk" sheetId="11" r:id="rId7"/>
     <sheet name="Team" sheetId="4" r:id="rId8"/>
-    <sheet name="SIEM Score Card" sheetId="12" r:id="rId9"/>
-    <sheet name="Email Security Score Card" sheetId="13" r:id="rId10"/>
-    <sheet name="Network Score Card" sheetId="14" r:id="rId11"/>
+    <sheet name="Compliance &amp; Audit" sheetId="15" r:id="rId9"/>
+    <sheet name="SIEM Score Card" sheetId="12" r:id="rId10"/>
+    <sheet name="Email Security Score Card" sheetId="13" r:id="rId11"/>
+    <sheet name="Network Score Card" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="944">
   <si>
     <t>Metric Name</t>
   </si>
@@ -2668,6 +2669,216 @@
   </si>
   <si>
     <t>Regularly backup network security configurations for quick recovery</t>
+  </si>
+  <si>
+    <t>Compliance Policy Implementation</t>
+  </si>
+  <si>
+    <t>Implementation of compliance policies (e.g., GDPR, HIPAA) to meet regulatory requirements</t>
+  </si>
+  <si>
+    <t>Regular policy updates based on regulatory changes</t>
+  </si>
+  <si>
+    <t>Compliance Adherence, Regulatory Coverage</t>
+  </si>
+  <si>
+    <t>Documentation and Revision Control</t>
+  </si>
+  <si>
+    <t>Maintain up-to-date compliance documentation, including version control for revisions</t>
+  </si>
+  <si>
+    <t>Automate version control processes and regular document audits</t>
+  </si>
+  <si>
+    <t>Compliance Readiness, Audit Preparation</t>
+  </si>
+  <si>
+    <t>Audit Readiness</t>
+  </si>
+  <si>
+    <t>Internal Audit Preparation</t>
+  </si>
+  <si>
+    <t>Prepare for internal audits with regular assessments of compliance status</t>
+  </si>
+  <si>
+    <t>Develop standardized internal audit checklists</t>
+  </si>
+  <si>
+    <t>Audit Readiness, Compliance Verification</t>
+  </si>
+  <si>
+    <t>External Audit Support</t>
+  </si>
+  <si>
+    <t>Support external auditors by providing requested documentation and access to systems</t>
+  </si>
+  <si>
+    <t>Compliance &amp; IT Team</t>
+  </si>
+  <si>
+    <t>Automate audit documentation generation; Develop relationships with auditors</t>
+  </si>
+  <si>
+    <t>Regulatory Compliance, Audit Facilitation</t>
+  </si>
+  <si>
+    <t>Compliance Risk Assessment</t>
+  </si>
+  <si>
+    <t>Conduct compliance risk assessments to identify and mitigate risks</t>
+  </si>
+  <si>
+    <t>Risk Management Team</t>
+  </si>
+  <si>
+    <t>Automate risk assessment with regular updates</t>
+  </si>
+  <si>
+    <t>Risk Management, Compliance Monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Reporting</t>
+  </si>
+  <si>
+    <t>Compliance Monitoring</t>
+  </si>
+  <si>
+    <t>Continuous monitoring of compliance requirements through automated tools</t>
+  </si>
+  <si>
+    <t>IT &amp; Compliance Team</t>
+  </si>
+  <si>
+    <t>Expand monitoring capabilities to cover new compliance requirements</t>
+  </si>
+  <si>
+    <t>Real-Time Compliance, Risk Management</t>
+  </si>
+  <si>
+    <t>Audit Trail Maintenance</t>
+  </si>
+  <si>
+    <t>Maintain an audit trail of user activities related to compliance-sensitive areas</t>
+  </si>
+  <si>
+    <t>Automate and centralize audit trail generation and storage</t>
+  </si>
+  <si>
+    <t>Compliance Verification, Incident Review</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>Data Classification</t>
+  </si>
+  <si>
+    <t>Classify sensitive data for compliance purposes to ensure appropriate handling</t>
+  </si>
+  <si>
+    <t>Data Management Team</t>
+  </si>
+  <si>
+    <t>Implement more detailed data classification policies</t>
+  </si>
+  <si>
+    <t>Data Security, Compliance Adherence</t>
+  </si>
+  <si>
+    <t>Data Retention Policies</t>
+  </si>
+  <si>
+    <t>Implement data retention policies in line with regulatory requirements</t>
+  </si>
+  <si>
+    <t>Automate data retention enforcement</t>
+  </si>
+  <si>
+    <t>Data Privacy, Legal Compliance</t>
+  </si>
+  <si>
+    <t>Awareness &amp; Training</t>
+  </si>
+  <si>
+    <t>Compliance Training</t>
+  </si>
+  <si>
+    <t>Regular training for staff on compliance policies and responsibilities</t>
+  </si>
+  <si>
+    <t>Training Team</t>
+  </si>
+  <si>
+    <t>Develop compliance-specific training modules; Improve training frequency</t>
+  </si>
+  <si>
+    <t>Employee Awareness, Risk Reduction</t>
+  </si>
+  <si>
+    <t>Awareness Campaigns</t>
+  </si>
+  <si>
+    <t>Launch awareness campaigns about new compliance requirements and changes</t>
+  </si>
+  <si>
+    <t>Compliance &amp; HR Team</t>
+  </si>
+  <si>
+    <t>Develop awareness content for different departments; Gather feedback on campaigns</t>
+  </si>
+  <si>
+    <t>Employee Engagement, Compliance Adherence</t>
+  </si>
+  <si>
+    <t>Tools &amp; Automation</t>
+  </si>
+  <si>
+    <t>Compliance Management Tools</t>
+  </si>
+  <si>
+    <t>Utilize tools for managing compliance requirements and reporting</t>
+  </si>
+  <si>
+    <t>Expand tool integration capabilities; Automate reporting</t>
+  </si>
+  <si>
+    <t>Compliance Tracking, Efficiency</t>
+  </si>
+  <si>
+    <t>Audit Automation</t>
+  </si>
+  <si>
+    <t>Automate audit workflows, including data collection, reporting, and document submission</t>
+  </si>
+  <si>
+    <t>Implement automated workflows for audit support</t>
+  </si>
+  <si>
+    <t>Audit Readiness, Process Improvement</t>
+  </si>
+  <si>
+    <t>Compliance Violation Handling</t>
+  </si>
+  <si>
+    <t>Define and manage workflows for responding to compliance violations</t>
+  </si>
+  <si>
+    <t>Develop predefined playbooks for handling common compliance violations</t>
+  </si>
+  <si>
+    <t>Regulatory Compliance, Incident Response</t>
+  </si>
+  <si>
+    <t>Breach Reporting</t>
+  </si>
+  <si>
+    <t>Ensure timely reporting of breaches as per regulatory requirements</t>
+  </si>
+  <si>
+    <t>Automate breach reporting mechanisms and notification workflows</t>
   </si>
 </sst>
 </file>
@@ -3530,6 +3741,726 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845154AF-6D8C-3D4D-95A4-B6C1A8B0AE02}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -4054,11 +4985,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70441F6C-DE92-6D4E-A33D-1A27DEB7080C}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -8851,719 +9782,440 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3376EF-F228-E74F-81E0-C8C21043B0CE}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>441</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>235</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>443</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>506</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>874</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>878</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>882</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>446</v>
+        <v>883</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>444</v>
+        <v>882</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>887</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>892</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>893</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>444</v>
+        <v>897</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>452</v>
+        <v>898</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>897</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>903</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>904</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>908</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>909</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>456</v>
+        <v>907</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>457</v>
+        <v>913</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>456</v>
+        <v>917</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>459</v>
+        <v>918</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>456</v>
+        <v>917</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>923</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>456</v>
+        <v>928</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>463</v>
+        <v>929</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>930</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>456</v>
+        <v>928</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>464</v>
+        <v>933</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>934</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>456</v>
+        <v>779</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>937</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>938</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>456</v>
+        <v>779</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>468</v>
+        <v>941</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+        <v>942</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDA7CF3-A4B7-C140-BC5A-72691718D4DE}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DE5C18-AE2B-B641-AB73-68AD7DF9E63F}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="12" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SIEM Score Card" sheetId="12" r:id="rId10"/>
     <sheet name="Email Security Score Card" sheetId="13" r:id="rId11"/>
     <sheet name="Network Score Card" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="986">
   <si>
     <t>Metric Name</t>
   </si>
@@ -490,6 +491,9 @@
     <t>Cloud Security Team</t>
   </si>
   <si>
+    <t>Integration</t>
+  </si>
+  <si>
     <t>Compliance</t>
   </si>
   <si>
@@ -2879,6 +2883,129 @@
   </si>
   <si>
     <t>Automate breach reporting mechanisms and notification workflows</t>
+  </si>
+  <si>
+    <t>Core Antivirus Features</t>
+  </si>
+  <si>
+    <t>Real-Time Protection</t>
+  </si>
+  <si>
+    <t>Ability to provide real-time protection against viruses and malware</t>
+  </si>
+  <si>
+    <t>On-Demand Scanning</t>
+  </si>
+  <si>
+    <t>Perform manual or scheduled scans for viruses and malware</t>
+  </si>
+  <si>
+    <t>Heuristic Analysis</t>
+  </si>
+  <si>
+    <t>Use heuristic analysis to detect unknown or zero-day threats</t>
+  </si>
+  <si>
+    <t>Quarantine Management</t>
+  </si>
+  <si>
+    <t>Ability to quarantine, release, or delete infected files</t>
+  </si>
+  <si>
+    <t>Endpoint Detection &amp; Response (EDR)</t>
+  </si>
+  <si>
+    <t>Detect suspicious activities based on behavioral analysis</t>
+  </si>
+  <si>
+    <t>Enable proactive threat hunting across endpoints</t>
+  </si>
+  <si>
+    <t>Provide automated or guided response actions for detected threats</t>
+  </si>
+  <si>
+    <t>Root Cause Analysis</t>
+  </si>
+  <si>
+    <t>Perform root cause analysis to understand the origin of an attack</t>
+  </si>
+  <si>
+    <t>Integrate threat intelligence feeds to enhance detection capabilities</t>
+  </si>
+  <si>
+    <t>Enrich alerts with additional threat context from external sources</t>
+  </si>
+  <si>
+    <t>Automated Remediation</t>
+  </si>
+  <si>
+    <t>Automate the remediation of detected threats based on predefined rules</t>
+  </si>
+  <si>
+    <t>Dynamic Block Lists</t>
+  </si>
+  <si>
+    <t>Automatically update block lists based on detected threats</t>
+  </si>
+  <si>
+    <t>Centralized Management Console</t>
+  </si>
+  <si>
+    <t>Provide a centralized management console for monitoring and management</t>
+  </si>
+  <si>
+    <t>Alerting and Notifications</t>
+  </si>
+  <si>
+    <t>Generate alerts and notifications for detected threats</t>
+  </si>
+  <si>
+    <t>Executive Reporting</t>
+  </si>
+  <si>
+    <t>Provide executive-level summary reports on threat status</t>
+  </si>
+  <si>
+    <t>Ability to create and customize security policies for different endpoints</t>
+  </si>
+  <si>
+    <t>Role-based access to manage endpoint security policies</t>
+  </si>
+  <si>
+    <t>Integrate with SIEM for centralized threat monitoring and correlation</t>
+  </si>
+  <si>
+    <t>Integrate with SOAR for automated response capabilities</t>
+  </si>
+  <si>
+    <t>Offline Protection</t>
+  </si>
+  <si>
+    <t>Provide protection for endpoints that are offline or not connected to the network</t>
+  </si>
+  <si>
+    <t>Device Control</t>
+  </si>
+  <si>
+    <t>Control access to external devices such as USB drives</t>
+  </si>
+  <si>
+    <t>Maintain audit logs of changes to endpoint security configurations</t>
+  </si>
+  <si>
+    <t>Regularly backup endpoint security configurations for quick recovery</t>
+  </si>
+  <si>
+    <t>Ability to allow/deny list applications to prevent unauthorized execution</t>
+  </si>
+  <si>
+    <t>Real-Time Evidence Collection</t>
+  </si>
+  <si>
+    <t>Collect evidence from endpoints in real time during incident response</t>
+  </si>
+  <si>
+    <t>Application Allow/Deny listing</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3589,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -3570,7 +3697,7 @@
     </row>
     <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -3579,16 +3706,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
@@ -3759,36 +3886,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3797,13 +3924,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3812,13 +3939,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3827,13 +3954,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3842,13 +3969,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3857,13 +3984,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3872,13 +3999,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3887,13 +4014,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3902,13 +4029,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3917,13 +4044,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3932,13 +4059,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3947,13 +4074,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3962,13 +4089,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3977,13 +4104,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3992,13 +4119,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4007,13 +4134,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4022,13 +4149,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4037,13 +4164,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4052,13 +4179,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4067,13 +4194,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4082,13 +4209,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4097,13 +4224,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4112,13 +4239,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4127,13 +4254,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4145,10 +4272,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4157,13 +4284,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4172,13 +4299,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4187,13 +4314,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4202,13 +4329,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4217,13 +4344,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4232,13 +4359,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4247,13 +4374,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4262,13 +4389,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4277,13 +4404,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4292,13 +4419,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4307,13 +4434,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4322,13 +4449,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4337,13 +4464,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4352,13 +4479,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4367,13 +4494,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4382,13 +4509,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4397,13 +4524,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4412,13 +4539,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4427,13 +4554,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4442,13 +4569,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4479,36 +4606,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4517,13 +4644,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4532,13 +4659,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4547,13 +4674,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4562,13 +4689,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4577,13 +4704,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4592,13 +4719,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4607,13 +4734,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4622,13 +4749,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4637,13 +4764,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4652,13 +4779,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4667,13 +4794,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4682,13 +4809,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4697,13 +4824,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4712,13 +4839,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4727,13 +4854,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4742,13 +4869,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4757,13 +4884,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4772,13 +4899,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4787,13 +4914,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4802,13 +4929,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4817,13 +4944,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4832,13 +4959,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4847,13 +4974,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4862,13 +4989,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4877,13 +5004,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4892,13 +5019,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4907,13 +5034,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4922,13 +5049,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4937,13 +5064,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4952,13 +5079,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4967,13 +5094,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5004,36 +5131,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5042,13 +5169,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5057,13 +5184,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5072,13 +5199,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5087,13 +5214,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5102,13 +5229,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5117,13 +5244,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5132,13 +5259,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5147,13 +5274,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5162,13 +5289,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5177,13 +5304,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5192,13 +5319,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5207,13 +5334,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5222,13 +5349,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5237,13 +5364,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5252,13 +5379,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5267,13 +5394,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5282,13 +5409,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5297,13 +5424,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5312,13 +5439,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5327,13 +5454,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5342,13 +5469,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5357,13 +5484,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5372,13 +5499,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5387,13 +5514,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5402,13 +5529,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5417,13 +5544,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5432,13 +5559,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5447,13 +5574,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5462,13 +5589,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -5477,18 +5604,468 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A836054-FAE1-5F40-868B-4E50E1BBE4D9}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5518,10 +6095,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -5530,7 +6107,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -5544,25 +6121,25 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>92</v>
@@ -5570,25 +6147,25 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>92</v>
@@ -5596,25 +6173,25 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>92</v>
@@ -5622,13 +6199,13 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -5637,24 +6214,24 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -5663,24 +6240,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -5689,24 +6266,24 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -5715,24 +6292,24 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>89</v>
@@ -5741,24 +6318,24 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -5767,24 +6344,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -5793,24 +6370,24 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -5819,24 +6396,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -5845,24 +6422,24 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
@@ -5871,24 +6448,24 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -5897,24 +6474,24 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -5923,24 +6500,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
@@ -5949,24 +6526,24 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>89</v>
@@ -5975,24 +6552,24 @@
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>89</v>
@@ -6001,24 +6578,24 @@
         <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>89</v>
@@ -6027,24 +6604,24 @@
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>89</v>
@@ -6053,24 +6630,24 @@
         <v>43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>89</v>
@@ -6079,24 +6656,24 @@
         <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>89</v>
@@ -6105,24 +6682,24 @@
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>89</v>
@@ -6131,24 +6708,24 @@
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>89</v>
@@ -6157,24 +6734,24 @@
         <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>89</v>
@@ -6183,13 +6760,13 @@
         <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6219,10 +6796,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -6231,7 +6808,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -6245,13 +6822,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -6260,24 +6837,24 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
@@ -6286,50 +6863,50 @@
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -6341,21 +6918,21 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -6364,24 +6941,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -6393,21 +6970,21 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -6416,50 +6993,50 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -6468,24 +7045,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -6494,24 +7071,24 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -6520,24 +7097,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -6549,21 +7126,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
@@ -6572,24 +7149,24 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -6598,24 +7175,24 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -6624,13 +7201,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6660,10 +7237,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -6672,7 +7249,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -6686,13 +7263,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -6701,24 +7278,24 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
@@ -6727,39 +7304,39 @@
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6767,10 +7344,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -6782,10 +7359,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6793,10 +7370,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -6808,10 +7385,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6819,10 +7396,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -6834,10 +7411,10 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6845,10 +7422,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -6857,13 +7434,13 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6871,10 +7448,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>89</v>
@@ -6886,21 +7463,21 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -6909,50 +7486,50 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -6961,24 +7538,24 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -6990,21 +7567,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
@@ -7016,21 +7593,21 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -7042,21 +7619,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -7065,24 +7642,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
@@ -7091,24 +7668,24 @@
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>89</v>
@@ -7120,10 +7697,10 @@
         <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +7750,7 @@
         <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>77</v>
@@ -7206,7 +7783,7 @@
         <v>86</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7355,7 +7932,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -7377,13 +7954,13 @@
         <v>114</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>95</v>
@@ -7403,7 +7980,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
@@ -7425,7 +8002,7 @@
         <v>91</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -7451,7 +8028,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>100</v>
@@ -7473,7 +8050,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -7499,7 +8076,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -7521,13 +8098,13 @@
         <v>102</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>95</v>
@@ -7539,7 +8116,7 @@
         <v>106</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>43</v>
@@ -7595,7 +8172,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>100</v>
@@ -7617,7 +8194,7 @@
         <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>93</v>
@@ -7643,10 +8220,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>89</v>
@@ -7665,13 +8242,13 @@
         <v>114</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>117</v>
@@ -7691,7 +8268,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>118</v>
@@ -7739,7 +8316,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>118</v>
@@ -7761,7 +8338,7 @@
         <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>93</v>
@@ -7770,7 +8347,7 @@
         <v>94</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>96</v>
@@ -7787,7 +8364,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>118</v>
@@ -7809,7 +8386,7 @@
         <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>93</v>
@@ -7818,7 +8395,7 @@
         <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>96</v>
@@ -7835,10 +8412,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>89</v>
@@ -7857,7 +8434,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>93</v>
@@ -7866,7 +8443,7 @@
         <v>94</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>96</v>
@@ -7883,10 +8460,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>89</v>
@@ -7905,7 +8482,7 @@
         <v>114</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>93</v>
@@ -7914,7 +8491,7 @@
         <v>94</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>96</v>
@@ -7931,10 +8508,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>89</v>
@@ -7953,7 +8530,7 @@
         <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>93</v>
@@ -7979,7 +8556,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>100</v>
@@ -8001,7 +8578,7 @@
         <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>93</v>
@@ -8010,7 +8587,7 @@
         <v>94</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>96</v>
@@ -8027,7 +8604,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>100</v>
@@ -8049,7 +8626,7 @@
         <v>102</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>93</v>
@@ -8058,7 +8635,7 @@
         <v>94</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>96</v>
@@ -8075,10 +8652,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>89</v>
@@ -8097,7 +8674,7 @@
         <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>93</v>
@@ -8171,7 +8748,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>142</v>
@@ -8219,7 +8796,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>131</v>
@@ -8241,7 +8818,7 @@
         <v>102</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>93</v>
@@ -8315,10 +8892,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>89</v>
@@ -8337,7 +8914,7 @@
         <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>93</v>
@@ -8346,7 +8923,7 @@
         <v>94</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>96</v>
@@ -8363,10 +8940,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>89</v>
@@ -8385,7 +8962,7 @@
         <v>102</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>93</v>
@@ -8394,7 +8971,7 @@
         <v>94</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>96</v>
@@ -8411,7 +8988,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>100</v>
@@ -8430,10 +9007,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>93</v>
@@ -8459,7 +9036,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>100</v>
@@ -8481,7 +9058,7 @@
         <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>93</v>
@@ -8532,10 +9109,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -8544,7 +9121,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -8558,13 +9135,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -8573,50 +9150,50 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -8625,24 +9202,24 @@
         <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -8651,76 +9228,76 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -8729,24 +9306,24 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>89</v>
@@ -8755,24 +9332,24 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -8781,24 +9358,24 @@
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -8807,39 +9384,39 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -8872,7 +9449,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -8881,7 +9458,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -8898,10 +9475,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -8910,13 +9487,13 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -8924,25 +9501,25 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -8950,10 +9527,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -8962,13 +9539,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -8976,10 +9553,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -8988,13 +9565,13 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9002,10 +9579,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -9014,13 +9591,13 @@
         <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9028,10 +9605,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -9040,13 +9617,13 @@
         <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9054,10 +9631,10 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -9066,13 +9643,13 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9080,25 +9657,25 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9106,10 +9683,10 @@
         <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -9118,13 +9695,13 @@
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9132,25 +9709,25 @@
         <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9158,10 +9735,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -9170,13 +9747,13 @@
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9184,10 +9761,10 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -9196,13 +9773,13 @@
         <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9210,25 +9787,25 @@
         <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9236,10 +9813,10 @@
         <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -9248,13 +9825,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9262,10 +9839,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -9274,13 +9851,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9288,10 +9865,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
@@ -9300,13 +9877,13 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9314,10 +9891,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>89</v>
@@ -9326,13 +9903,13 @@
         <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -9365,7 +9942,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -9374,7 +9951,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -9388,13 +9965,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -9403,50 +9980,50 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -9455,50 +10032,50 @@
         <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -9507,24 +10084,24 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>89</v>
@@ -9533,24 +10110,24 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -9559,50 +10136,50 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -9611,24 +10188,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -9637,50 +10214,50 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>89</v>
@@ -9689,24 +10266,24 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
@@ -9715,50 +10292,50 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -9767,13 +10344,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -9785,7 +10362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3376EF-F228-E74F-81E0-C8C21043B0CE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -9803,10 +10380,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -9815,7 +10392,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -9829,13 +10406,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -9844,50 +10421,50 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>89</v>
@@ -9896,24 +10473,24 @@
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -9922,13 +10499,13 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -9936,10 +10513,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>89</v>
@@ -9948,50 +10525,50 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>89</v>
@@ -10000,50 +10577,50 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
@@ -10052,24 +10629,24 @@
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -10078,24 +10655,24 @@
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>89</v>
@@ -10104,76 +10681,76 @@
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>89</v>
@@ -10185,21 +10762,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>89</v>
@@ -10211,10 +10788,10 @@
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DE5C18-AE2B-B641-AB73-68AD7DF9E63F}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F538EF-FF54-5C41-BEE4-00104708F673}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="12" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="SIEM Score Card" sheetId="12" r:id="rId10"/>
     <sheet name="Email Security Score Card" sheetId="13" r:id="rId11"/>
     <sheet name="Network Score Card" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId13"/>
+    <sheet name="EDR" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F538EF-FF54-5C41-BEE4-00104708F673}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0239572-8990-F342-A851-03A6F09291D8}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="12" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -3445,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3520,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -3808,8 +3808,9 @@
         <v>3</v>
       </c>
       <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3817,8 +3818,9 @@
         <v>40</v>
       </c>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3826,8 +3828,9 @@
         <v>42</v>
       </c>
       <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3835,8 +3838,9 @@
         <v>44</v>
       </c>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3844,8 +3848,9 @@
         <v>46</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -3853,15 +3858,16 @@
         <v>48</v>
       </c>
       <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5626,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A836054-FAE1-5F40-868B-4E50E1BBE4D9}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB608AC-A830-B94B-8F8A-B20DA764E03F}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A528D68-C94A-1747-930C-696BE99D1F78}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="12" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1000">
   <si>
     <t>Metric Name</t>
   </si>
@@ -3124,7 +3124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3163,15 +3163,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5695,7 +5694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A836054-FAE1-5F40-868B-4E50E1BBE4D9}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6143,23 +6142,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
     <col min="7" max="7" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" style="16" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
@@ -6185,14 +6184,14 @@
       <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -6212,7 +6211,7 @@
       <c r="G2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -6239,7 +6238,7 @@
       <c r="G3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>237</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -6266,7 +6265,7 @@
       <c r="G4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>240</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -6293,14 +6292,14 @@
       <c r="G5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>243</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>215</v>
       </c>
@@ -6320,7 +6319,7 @@
       <c r="G6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -6347,7 +6346,7 @@
       <c r="G7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>249</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -6374,7 +6373,7 @@
       <c r="G8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -6401,7 +6400,7 @@
       <c r="G9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>219</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -6428,14 +6427,14 @@
       <c r="G10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -6455,7 +6454,7 @@
       <c r="G11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -6482,14 +6481,14 @@
       <c r="G12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>263</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>221</v>
       </c>
@@ -6509,7 +6508,7 @@
       <c r="G13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>266</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -6536,14 +6535,14 @@
       <c r="G14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>269</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
@@ -6563,14 +6562,14 @@
       <c r="G15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>272</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
@@ -6590,7 +6589,7 @@
       <c r="G16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>275</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -6617,7 +6616,7 @@
       <c r="G17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>278</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -6644,14 +6643,14 @@
       <c r="G18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>281</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>226</v>
       </c>
@@ -6671,14 +6670,14 @@
       <c r="G19" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>284</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>226</v>
       </c>
@@ -6698,7 +6697,7 @@
       <c r="G20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>287</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -6725,7 +6724,7 @@
       <c r="G21" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>290</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -6752,7 +6751,7 @@
       <c r="G22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>293</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -6779,7 +6778,7 @@
       <c r="G23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>230</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -6806,14 +6805,14 @@
       <c r="G24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>298</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -6833,14 +6832,14 @@
       <c r="G25" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>301</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
@@ -6860,7 +6859,7 @@
       <c r="G26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>304</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -6868,63 +6867,363 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="7" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="16"/>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
         <v>992</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="20" t="s">
         <v>993</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
         <v>995</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22" t="s">
         <v>997</v>
       </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A528D68-C94A-1747-930C-696BE99D1F78}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2C577E-F665-6B4D-B36A-910C7E031B92}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1002">
   <si>
     <t>Metric Name</t>
   </si>
@@ -3006,6 +3006,12 @@
   </si>
   <si>
     <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
   </si>
   <si>
     <t>April</t>
@@ -3054,7 +3060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3077,6 +3083,28 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3086,7 +3114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3120,11 +3148,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3163,14 +3452,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3535,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -6142,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6176,10 +6533,10 @@
         <v>73</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -6866,35 +7223,51 @@
         <v>231</v>
       </c>
     </row>
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="22" t="s">
         <v>984</v>
       </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="F30" s="16"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="28" t="s">
         <v>985</v>
       </c>
+      <c r="F31" s="16"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>988</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23" t="s">
-        <v>989</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+        <v>992</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -6918,12 +7291,12 @@
       <c r="H33" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
@@ -6931,10 +7304,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -6942,10 +7315,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -6953,30 +7326,33 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
       <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>986</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22" t="s">
-        <v>991</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -7000,12 +7376,12 @@
       <c r="H39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
@@ -7013,10 +7389,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
@@ -7024,10 +7400,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
@@ -7035,30 +7411,33 @@
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="17"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>992</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20" t="s">
-        <v>993</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22" t="s">
+      <c r="A44" s="35" t="s">
         <v>994</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -7082,12 +7461,12 @@
       <c r="H45" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
@@ -7095,10 +7474,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
@@ -7106,10 +7485,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
@@ -7117,27 +7496,32 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="F49" s="16"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>995</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="20" t="s">
-        <v>996</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22" t="s">
+      <c r="A50" s="35" t="s">
         <v>997</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -7161,12 +7545,12 @@
       <c r="H51" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
@@ -7174,10 +7558,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
@@ -7185,10 +7569,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
@@ -7196,24 +7580,816 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="F60" s="16"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="26"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="16"/>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="F79" s="16"/>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="34"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="34"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="34"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="88" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="40" t="s">
+        <v>984</v>
+      </c>
+      <c r="B89" s="42"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="45"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="48" t="s">
+        <v>987</v>
+      </c>
+      <c r="B91" s="41"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
+    </row>
+    <row r="92" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="61" t="s">
+        <v>990</v>
+      </c>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64" t="s">
+        <v>991</v>
+      </c>
+      <c r="E92" s="62"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="66" t="s">
+        <v>992</v>
+      </c>
+      <c r="H92" s="65"/>
+      <c r="I92" s="67"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="56"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="56"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="56"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="45"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="47"/>
+    </row>
+    <row r="98" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="61" t="s">
+        <v>988</v>
+      </c>
+      <c r="B98" s="62"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64" t="s">
+        <v>989</v>
+      </c>
+      <c r="E98" s="62"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="66" t="s">
+        <v>993</v>
+      </c>
+      <c r="H98" s="65"/>
+      <c r="I98" s="67"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="53"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="56"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="53"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="56"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="53"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="56"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="45"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="47"/>
+    </row>
+    <row r="104" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="61" t="s">
+        <v>994</v>
+      </c>
+      <c r="B104" s="62"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="64" t="s">
+        <v>995</v>
+      </c>
+      <c r="E104" s="62"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="66" t="s">
+        <v>996</v>
+      </c>
+      <c r="H104" s="65"/>
+      <c r="I104" s="67"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I105" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="53"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="56"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="53"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="56"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="53"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="56"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="45"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="47"/>
+    </row>
+    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="61" t="s">
+        <v>997</v>
+      </c>
+      <c r="B110" s="62"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="64" t="s">
+        <v>998</v>
+      </c>
+      <c r="E110" s="62"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="66" t="s">
+        <v>999</v>
+      </c>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F111" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H111" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="53"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="56"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="53"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="56"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="53"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="56"/>
+    </row>
+    <row r="115" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="57"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="36">
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:I74"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="G50:I50"/>
@@ -7263,10 +8439,10 @@
         <v>73</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -7755,7 +8931,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -8308,7 +9484,7 @@
         <v>156</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -9664,7 +10840,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -10028,7 +11204,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -10542,7 +11718,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>
@@ -11002,7 +12178,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>81</v>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2C577E-F665-6B4D-B36A-910C7E031B92}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB333717-63D2-DA4D-B002-F6F2169C7ADA}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1034">
   <si>
     <t>Metric Name</t>
   </si>
@@ -3054,6 +3054,102 @@
   </si>
   <si>
     <t>Target Level</t>
+  </si>
+  <si>
+    <t>SIEM Monitoring</t>
+  </si>
+  <si>
+    <t>Initial Implementation</t>
+  </si>
+  <si>
+    <t>Deploying basic SIEM monitoring for threat detection, focusing on key log sources.</t>
+  </si>
+  <si>
+    <t>Log Collection Expansion</t>
+  </si>
+  <si>
+    <t>Critical Assets Logging</t>
+  </si>
+  <si>
+    <t>Expand log collection to include critical assets like firewalls, routers, and servers.</t>
+  </si>
+  <si>
+    <t>Alerting Configuration</t>
+  </si>
+  <si>
+    <t>Correlation Alerts</t>
+  </si>
+  <si>
+    <t>Create correlation rules to identify suspicious activities across data sources.</t>
+  </si>
+  <si>
+    <t>Data Normalization</t>
+  </si>
+  <si>
+    <t>Data Model Setup</t>
+  </si>
+  <si>
+    <t>Implement a data model to normalize incoming log data for consistent analysis.</t>
+  </si>
+  <si>
+    <t>Dashboard Creation</t>
+  </si>
+  <si>
+    <t>Develop an executive-level dashboard for high-level SIEM metrics.</t>
+  </si>
+  <si>
+    <t>Log Retention Policy</t>
+  </si>
+  <si>
+    <t>Retention Configuration</t>
+  </si>
+  <si>
+    <t>Configure log retention policies to meet regulatory compliance requirements.</t>
+  </si>
+  <si>
+    <t>Integrate commercial threat feeds with SIEM for enriched alert context.</t>
+  </si>
+  <si>
+    <t>Advanced Alerting</t>
+  </si>
+  <si>
+    <t>Custom Use Cases</t>
+  </si>
+  <si>
+    <t>Develop custom use cases focusing on critical behaviors like privilege escalation.</t>
+  </si>
+  <si>
+    <t>User Behavior Analytics (UBA)</t>
+  </si>
+  <si>
+    <t>Behavioral Baselines</t>
+  </si>
+  <si>
+    <t>Implement UBA to establish baselines and flag deviations.</t>
+  </si>
+  <si>
+    <t>Incident Workflow Integration</t>
+  </si>
+  <si>
+    <t>Integrate SIEM with SOAR for automated response workflows.</t>
+  </si>
+  <si>
+    <t>Tuning Alerts</t>
+  </si>
+  <si>
+    <t>False Positive Reduction</t>
+  </si>
+  <si>
+    <t>Tune alert rules to reduce false positives and improve response efficiency.</t>
+  </si>
+  <si>
+    <t>Operationalizing Threat Feeds</t>
+  </si>
+  <si>
+    <t>Use Case Development</t>
+  </si>
+  <si>
+    <t>Develop use cases to operationalize threat feeds and identify IoCs (Indicators of Compromise).</t>
   </si>
 </sst>
 </file>
@@ -6501,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7249,31 +7345,31 @@
       <c r="F31" s="16"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -7282,83 +7378,105 @@
       <c r="E33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="34"/>
+      <c r="A34" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
-      <c r="I37" s="27"/>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -7367,83 +7485,105 @@
       <c r="E39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="34"/>
+    <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="34"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="34"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="I43" s="27"/>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -7452,82 +7592,105 @@
       <c r="E45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="34"/>
+      <c r="A46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="F49" s="16"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="18" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -7536,32 +7699,50 @@
       <c r="E51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="34"/>
+      <c r="A52" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
@@ -7569,10 +7750,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="34"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
@@ -7580,7 +7761,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="34"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
@@ -8362,7 +8543,7 @@
       <c r="I115" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="24">
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="D110:F110"/>
     <mergeCell ref="G110:I110"/>
@@ -8384,21 +8565,9 @@
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="G74:I74"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="G62:I62"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB333717-63D2-DA4D-B002-F6F2169C7ADA}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6A5C1B-5B2F-F546-90B4-6FE6EEF0F6D0}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1034">
   <si>
     <t>Metric Name</t>
   </si>
@@ -6597,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8575,10 +8575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4D4EF-8AD6-F044-9C90-44FE922B03DE}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A20" sqref="A20:I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9028,47 +9028,1315 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="26"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="34"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="34"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="39"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9569,17 +10837,1306 @@
         <v>439</v>
       </c>
     </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="26"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="34"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="34"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="86" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="26"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="27"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="34"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="34"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="34"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="33"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="34"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="33"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="34"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="33"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="34"/>
+    </row>
+    <row r="113" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="39"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10967,17 +13524,1306 @@
         <v>43</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="26"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="34"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="34"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="34"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="34"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="39"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="25"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="27"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="34"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="34"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="27"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="33"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="34"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="33"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="34"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="33"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="34"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="27"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I117" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="33"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="33"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="33"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="34"/>
+    </row>
+    <row r="121" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="36"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="39"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35D593A-9331-BC43-A9AE-0BF9519B27F6}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A18" sqref="A18:I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11330,17 +15176,1306 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="39"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="26"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="27"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="34"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="34"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="26"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="27"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="34"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="34"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="34"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="36"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="39"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACE9B05-E70F-CB4F-98FD-3E4150D258C0}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11844,17 +16979,1450 @@
         <v>625</v>
       </c>
     </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="26"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="26"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="34"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="26"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="34"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="27"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I96" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="34"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="34"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="34"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="34"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="34"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="33"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="34"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="33"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="34"/>
+    </row>
+    <row r="112" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="39"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A21" sqref="A21:I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12304,17 +18872,1306 @@
         <v>701</v>
       </c>
     </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="26"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="26"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="34"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="26"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="34"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="34"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="34"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="34"/>
+    </row>
+    <row r="110" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="39"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3376EF-F228-E74F-81E0-C8C21043B0CE}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12764,7 +20621,1296 @@
         <v>367</v>
       </c>
     </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="26"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="34"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="34"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="39"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6A5C1B-5B2F-F546-90B4-6FE6EEF0F6D0}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E28512E4-403D-C64A-8819-66DB01B7B526}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="8" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -3960,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6597,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:I86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20170,7 +20170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3376EF-F228-E74F-81E0-C8C21043B0CE}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:I154"/>
     </sheetView>
   </sheetViews>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E28512E4-403D-C64A-8819-66DB01B7B526}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917C8336-5099-3841-B255-E42573943806}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="9" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1036">
   <si>
     <t>Metric Name</t>
   </si>
@@ -3150,6 +3150,12 @@
   </si>
   <si>
     <t>Develop use cases to operationalize threat feeds and identify IoCs (Indicators of Compromise).</t>
+  </si>
+  <si>
+    <t>Log Onboarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to add new data sources and parse fields </t>
   </si>
 </sst>
 </file>
@@ -3960,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F32774-59E9-7741-A374-C40F4B6ECE7D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4390,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4730,13 +4736,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>474</v>
+        <v>1034</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>475</v>
+        <v>1035</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4748,10 +4754,10 @@
         <v>473</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>712</v>
+        <v>475</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4763,10 +4769,10 @@
         <v>473</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>713</v>
+        <v>476</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4778,10 +4784,10 @@
         <v>473</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>477</v>
+        <v>713</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>478</v>
+        <v>714</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4790,13 +4796,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>715</v>
+        <v>478</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4805,13 +4811,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4823,10 +4829,10 @@
         <v>480</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4838,10 +4844,10 @@
         <v>480</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4853,10 +4859,10 @@
         <v>480</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>719</v>
+        <v>483</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4868,10 +4874,10 @@
         <v>480</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4883,10 +4889,10 @@
         <v>480</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4898,10 +4904,10 @@
         <v>480</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>484</v>
+        <v>724</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4910,13 +4916,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>727</v>
+        <v>484</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4928,10 +4934,10 @@
         <v>485</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>486</v>
+        <v>726</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4940,13 +4946,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>489</v>
+        <v>728</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4958,10 +4964,10 @@
         <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4973,10 +4979,10 @@
         <v>487</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4985,13 +4991,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>729</v>
+        <v>487</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5003,10 +5009,10 @@
         <v>729</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5018,10 +5024,10 @@
         <v>729</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>730</v>
+        <v>496</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5030,13 +5036,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>729</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>465</v>
+        <v>730</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5048,10 +5054,10 @@
         <v>151</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>731</v>
+        <v>465</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>732</v>
+        <v>499</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5063,10 +5069,10 @@
         <v>151</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>500</v>
+        <v>731</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5078,10 +5084,10 @@
         <v>151</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5093,15 +5099,30 @@
         <v>151</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>735</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>501</v>
+        <v>734</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917C8336-5099-3841-B255-E42573943806}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD145DDC-D822-3E46-9882-3C06FE8BE8AC}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="9" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="7" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -3155,7 +3155,7 @@
     <t>Log Onboarding</t>
   </si>
   <si>
-    <t xml:space="preserve">Ability to add new data sources and parse fields </t>
+    <t>Ability to add new data sources, identify data types and natively parse fields (with/without packs/add-ons/libraries)</t>
   </si>
 </sst>
 </file>
@@ -4398,15 +4398,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.5" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6619,10 +6619,10 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F111"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="16" bestFit="1" customWidth="1"/>
@@ -6665,7 +6665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>212</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>212</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>215</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>215</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>218</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>218</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>221</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>221</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>221</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>226</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>226</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>226</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>229</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
@@ -7354,19 +7354,19 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="F30" s="16"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>985</v>
       </c>
       <c r="F31" s="16"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>990</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>211</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1002</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7452,7 +7452,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7463,7 +7463,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7473,7 +7473,7 @@
       <c r="H37"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>988</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>211</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1011</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7559,7 +7559,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7570,7 +7570,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7580,7 +7580,7 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>994</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>211</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>340</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7666,7 +7666,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7677,7 +7677,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7687,7 +7687,7 @@
       <c r="H49"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>997</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>211</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1026</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -7773,7 +7773,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -7784,7 +7784,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
@@ -7795,8 +7795,10 @@
       <c r="H55" s="38"/>
       <c r="I55" s="39"/>
     </row>
-    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>984</v>
       </c>
@@ -7809,19 +7811,19 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="F60" s="16"/>
       <c r="I60" s="27"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>986</v>
       </c>
       <c r="F61" s="16"/>
       <c r="I61" s="27"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>990</v>
       </c>
@@ -7838,7 +7840,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>211</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -7878,7 +7880,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -7889,7 +7891,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="34"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -7900,13 +7902,13 @@
       <c r="H66" s="2"/>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>988</v>
       </c>
@@ -7923,7 +7925,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31" t="s">
         <v>211</v>
       </c>
@@ -7952,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -7963,7 +7965,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -7974,7 +7976,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -7985,13 +7987,13 @@
       <c r="H72" s="2"/>
       <c r="I72" s="34"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="I73" s="27"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>994</v>
       </c>
@@ -8008,7 +8010,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>211</v>
       </c>
@@ -8037,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -8048,7 +8050,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -8059,7 +8061,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -8070,12 +8072,12 @@
       <c r="H78" s="2"/>
       <c r="I78" s="34"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="F79" s="16"/>
       <c r="I79" s="27"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>997</v>
       </c>
@@ -8092,7 +8094,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
         <v>211</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -8132,7 +8134,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="34"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -8143,7 +8145,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="34"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -8154,7 +8156,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="34"/>
     </row>
-    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="38"/>
@@ -8165,8 +8167,10 @@
       <c r="H85" s="38"/>
       <c r="I85" s="39"/>
     </row>
-    <row r="88" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="40" t="s">
         <v>984</v>
       </c>
@@ -8179,7 +8183,7 @@
       <c r="H89" s="43"/>
       <c r="I89" s="44"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="41"/>
       <c r="C90" s="46"/>
@@ -8190,7 +8194,7 @@
       <c r="H90" s="46"/>
       <c r="I90" s="47"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>987</v>
       </c>
@@ -8203,7 +8207,7 @@
       <c r="H91" s="46"/>
       <c r="I91" s="47"/>
     </row>
-    <row r="92" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="61" t="s">
         <v>990</v>
       </c>
@@ -8220,7 +8224,7 @@
       <c r="H92" s="65"/>
       <c r="I92" s="67"/>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49" t="s">
         <v>211</v>
       </c>
@@ -8249,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="53"/>
       <c r="B94" s="54"/>
       <c r="C94" s="55"/>
@@ -8260,7 +8264,7 @@
       <c r="H94" s="55"/>
       <c r="I94" s="56"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="53"/>
       <c r="B95" s="54"/>
       <c r="C95" s="55"/>
@@ -8271,7 +8275,7 @@
       <c r="H95" s="55"/>
       <c r="I95" s="56"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="53"/>
       <c r="B96" s="54"/>
       <c r="C96" s="55"/>
@@ -8282,7 +8286,7 @@
       <c r="H96" s="55"/>
       <c r="I96" s="56"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="41"/>
       <c r="C97" s="46"/>
@@ -8293,7 +8297,7 @@
       <c r="H97" s="46"/>
       <c r="I97" s="47"/>
     </row>
-    <row r="98" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="61" t="s">
         <v>988</v>
       </c>
@@ -8310,7 +8314,7 @@
       <c r="H98" s="65"/>
       <c r="I98" s="67"/>
     </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="49" t="s">
         <v>211</v>
       </c>
@@ -8339,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="53"/>
       <c r="B100" s="54"/>
       <c r="C100" s="55"/>
@@ -8350,7 +8354,7 @@
       <c r="H100" s="55"/>
       <c r="I100" s="56"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="53"/>
       <c r="B101" s="54"/>
       <c r="C101" s="55"/>
@@ -8361,7 +8365,7 @@
       <c r="H101" s="55"/>
       <c r="I101" s="56"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="53"/>
       <c r="B102" s="54"/>
       <c r="C102" s="55"/>
@@ -8372,7 +8376,7 @@
       <c r="H102" s="55"/>
       <c r="I102" s="56"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="41"/>
       <c r="C103" s="46"/>
@@ -8383,7 +8387,7 @@
       <c r="H103" s="46"/>
       <c r="I103" s="47"/>
     </row>
-    <row r="104" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="61" t="s">
         <v>994</v>
       </c>
@@ -8400,7 +8404,7 @@
       <c r="H104" s="65"/>
       <c r="I104" s="67"/>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="49" t="s">
         <v>211</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="53"/>
       <c r="B106" s="54"/>
       <c r="C106" s="55"/>
@@ -8440,7 +8444,7 @@
       <c r="H106" s="55"/>
       <c r="I106" s="56"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="53"/>
       <c r="B107" s="54"/>
       <c r="C107" s="55"/>
@@ -8451,7 +8455,7 @@
       <c r="H107" s="55"/>
       <c r="I107" s="56"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="53"/>
       <c r="B108" s="54"/>
       <c r="C108" s="55"/>
@@ -8462,7 +8466,7 @@
       <c r="H108" s="55"/>
       <c r="I108" s="56"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="41"/>
       <c r="C109" s="46"/>
@@ -8473,7 +8477,7 @@
       <c r="H109" s="46"/>
       <c r="I109" s="47"/>
     </row>
-    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="61" t="s">
         <v>997</v>
       </c>
@@ -8490,7 +8494,7 @@
       <c r="H110" s="65"/>
       <c r="I110" s="67"/>
     </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="49" t="s">
         <v>211</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="53"/>
       <c r="B112" s="54"/>
       <c r="C112" s="55"/>
@@ -8530,7 +8534,7 @@
       <c r="H112" s="55"/>
       <c r="I112" s="56"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="53"/>
       <c r="B113" s="54"/>
       <c r="C113" s="55"/>
@@ -8541,7 +8545,7 @@
       <c r="H113" s="55"/>
       <c r="I113" s="56"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="53"/>
       <c r="B114" s="54"/>
       <c r="C114" s="55"/>
@@ -8552,7 +8556,7 @@
       <c r="H114" s="55"/>
       <c r="I114" s="56"/>
     </row>
-    <row r="115" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57"/>
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
@@ -8599,10 +8603,10 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I154"/>
+      <selection activeCell="A22" sqref="A22:I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
@@ -9081,7 +9085,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -9092,7 +9096,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>985</v>
       </c>
@@ -9105,7 +9109,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>990</v>
       </c>
@@ -9122,7 +9126,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>211</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -9162,7 +9166,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -9173,7 +9177,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -9184,7 +9188,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -9195,7 +9199,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>988</v>
       </c>
@@ -9212,7 +9216,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>211</v>
       </c>
@@ -9241,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -9252,7 +9256,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -9263,7 +9267,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -9274,7 +9278,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -9285,7 +9289,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>994</v>
       </c>
@@ -9302,7 +9306,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>211</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -9342,7 +9346,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -9353,7 +9357,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -9364,7 +9368,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -9375,7 +9379,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>997</v>
       </c>
@@ -9392,7 +9396,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>211</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -9432,7 +9436,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -9443,7 +9447,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -9454,7 +9458,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
@@ -9465,7 +9469,7 @@
       <c r="H47" s="38"/>
       <c r="I47" s="39"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
@@ -9475,7 +9479,9 @@
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
@@ -9485,7 +9491,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>984</v>
       </c>
@@ -9498,7 +9504,7 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
@@ -9509,7 +9515,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>986</v>
       </c>
@@ -9522,7 +9528,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>990</v>
       </c>
@@ -9539,7 +9545,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>211</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -9579,7 +9585,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -9590,7 +9596,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -9601,7 +9607,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="34"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -9612,7 +9618,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="27"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>988</v>
       </c>
@@ -9629,7 +9635,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>211</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -9669,7 +9675,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -9680,7 +9686,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -9691,7 +9697,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="34"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
@@ -9702,7 +9708,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>994</v>
       </c>
@@ -9719,7 +9725,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
         <v>211</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -9759,7 +9765,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -9770,7 +9776,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -9781,7 +9787,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
@@ -9792,7 +9798,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="27"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35" t="s">
         <v>997</v>
       </c>
@@ -9809,7 +9815,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>211</v>
       </c>
@@ -9838,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -9849,7 +9855,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -9860,7 +9866,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -9871,7 +9877,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
@@ -9882,7 +9888,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="39"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -9892,7 +9898,9 @@
       <c r="H79" s="17"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
@@ -9902,7 +9910,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>984</v>
       </c>
@@ -9915,7 +9923,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
@@ -9926,7 +9934,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="27"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>987</v>
       </c>
@@ -9939,7 +9947,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29" t="s">
         <v>990</v>
       </c>
@@ -9956,7 +9964,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>211</v>
       </c>
@@ -9985,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -9996,7 +10004,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -10007,7 +10015,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -10018,7 +10026,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="34"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="16"/>
       <c r="C91" s="17"/>
@@ -10029,7 +10037,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="27"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
         <v>988</v>
       </c>
@@ -10046,7 +10054,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>211</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -10086,7 +10094,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -10097,7 +10105,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="34"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -10108,7 +10116,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="34"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17"/>
@@ -10119,7 +10127,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="35" t="s">
         <v>994</v>
       </c>
@@ -10136,7 +10144,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
         <v>211</v>
       </c>
@@ -10165,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -10176,7 +10184,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -10187,7 +10195,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -10198,7 +10206,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -10209,7 +10217,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="35" t="s">
         <v>997</v>
       </c>
@@ -10226,7 +10234,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>211</v>
       </c>
@@ -10255,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -10266,7 +10274,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -10277,7 +10285,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -10288,7 +10296,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="37"/>
       <c r="C109" s="38"/>
@@ -10356,11 +10364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I158"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
@@ -10881,7 +10889,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -10892,7 +10900,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>985</v>
       </c>
@@ -10905,7 +10913,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>990</v>
       </c>
@@ -10922,7 +10930,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>211</v>
       </c>
@@ -10951,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -10962,7 +10970,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -10973,7 +10981,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -10984,7 +10992,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -10995,7 +11003,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>988</v>
       </c>
@@ -11012,7 +11020,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>211</v>
       </c>
@@ -11041,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -11052,7 +11060,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -11063,7 +11071,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -11074,7 +11082,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -11085,7 +11093,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>994</v>
       </c>
@@ -11102,7 +11110,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>211</v>
       </c>
@@ -11131,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -11142,7 +11150,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -11153,7 +11161,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -11164,7 +11172,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -11175,7 +11183,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>997</v>
       </c>
@@ -11192,7 +11200,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>211</v>
       </c>
@@ -11221,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -11232,7 +11240,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -11243,7 +11251,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -11254,7 +11262,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="38"/>
@@ -11265,7 +11273,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="39"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -11275,7 +11283,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
@@ -11285,7 +11295,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>984</v>
       </c>
@@ -11298,7 +11308,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17"/>
@@ -11309,7 +11319,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>986</v>
       </c>
@@ -11322,7 +11332,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="27"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>990</v>
       </c>
@@ -11339,7 +11349,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>211</v>
       </c>
@@ -11368,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -11379,7 +11389,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -11390,7 +11400,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -11401,7 +11411,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
@@ -11412,7 +11422,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="27"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>988</v>
       </c>
@@ -11429,7 +11439,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>211</v>
       </c>
@@ -11458,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -11469,7 +11479,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -11480,7 +11490,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -11491,7 +11501,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -11502,7 +11512,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>994</v>
       </c>
@@ -11519,7 +11529,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>211</v>
       </c>
@@ -11548,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -11559,7 +11569,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -11570,7 +11580,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -11581,7 +11591,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
@@ -11592,7 +11602,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="27"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>997</v>
       </c>
@@ -11609,7 +11619,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>211</v>
       </c>
@@ -11638,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -11649,7 +11659,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="34"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -11660,7 +11670,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="34"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -11671,7 +11681,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="34"/>
     </row>
-    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="38"/>
@@ -11682,7 +11692,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="39"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
@@ -11692,7 +11702,9 @@
       <c r="H83" s="17"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
@@ -11702,7 +11714,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>984</v>
       </c>
@@ -11715,7 +11727,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
@@ -11726,7 +11738,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="27"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>987</v>
       </c>
@@ -11739,7 +11751,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29" t="s">
         <v>990</v>
       </c>
@@ -11756,7 +11768,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>211</v>
       </c>
@@ -11785,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -11796,7 +11808,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -11807,7 +11819,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -11818,7 +11830,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -11829,7 +11841,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
         <v>988</v>
       </c>
@@ -11846,7 +11858,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
         <v>211</v>
       </c>
@@ -11875,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -11886,7 +11898,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -11897,7 +11909,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -11908,7 +11920,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -11919,7 +11931,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="27"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>994</v>
       </c>
@@ -11936,7 +11948,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
         <v>211</v>
       </c>
@@ -11965,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -11976,7 +11988,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -11987,7 +11999,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -11998,7 +12010,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17"/>
@@ -12009,7 +12021,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="27"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
         <v>997</v>
       </c>
@@ -12026,7 +12038,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
         <v>211</v>
       </c>
@@ -12055,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -12066,7 +12078,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -12077,7 +12089,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -12088,7 +12100,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="34"/>
     </row>
-    <row r="113" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="37"/>
       <c r="C113" s="38"/>
@@ -12099,7 +12111,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="39"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -12154,13 +12166,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I166"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:I123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -13568,7 +13580,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -13579,7 +13591,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>985</v>
       </c>
@@ -13592,7 +13604,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>990</v>
       </c>
@@ -13609,7 +13621,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>211</v>
       </c>
@@ -13638,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -13649,7 +13661,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -13660,7 +13672,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -13671,7 +13683,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -13682,7 +13694,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>988</v>
       </c>
@@ -13699,7 +13711,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>211</v>
       </c>
@@ -13728,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -13739,7 +13751,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -13750,7 +13762,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -13761,7 +13773,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
@@ -13772,7 +13784,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
         <v>994</v>
       </c>
@@ -13789,7 +13801,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>211</v>
       </c>
@@ -13818,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -13829,7 +13841,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -13840,7 +13852,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -13851,7 +13863,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
@@ -13862,7 +13874,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>997</v>
       </c>
@@ -13879,7 +13891,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>211</v>
       </c>
@@ -13908,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -13919,7 +13931,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="34"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -13930,7 +13942,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -13941,7 +13953,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
@@ -13952,7 +13964,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -13962,7 +13974,9 @@
       <c r="H60" s="17"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
@@ -13972,7 +13986,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>984</v>
       </c>
@@ -13985,7 +13999,7 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
@@ -13996,7 +14010,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="27"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>986</v>
       </c>
@@ -14009,7 +14023,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>990</v>
       </c>
@@ -14026,7 +14040,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
         <v>211</v>
       </c>
@@ -14055,7 +14069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -14066,7 +14080,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -14077,7 +14091,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -14088,7 +14102,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
@@ -14099,7 +14113,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="27"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>988</v>
       </c>
@@ -14116,7 +14130,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>211</v>
       </c>
@@ -14145,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -14156,7 +14170,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -14167,7 +14181,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -14178,7 +14192,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
@@ -14189,7 +14203,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="27"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="35" t="s">
         <v>994</v>
       </c>
@@ -14206,7 +14220,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
         <v>211</v>
       </c>
@@ -14235,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -14246,7 +14260,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="34"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -14257,7 +14271,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="34"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -14268,7 +14282,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="34"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
@@ -14279,7 +14293,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="27"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>997</v>
       </c>
@@ -14296,7 +14310,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="30"/>
     </row>
-    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>211</v>
       </c>
@@ -14325,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -14336,7 +14350,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="34"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -14347,7 +14361,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -14358,7 +14372,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
@@ -14369,7 +14383,7 @@
       <c r="H90" s="38"/>
       <c r="I90" s="39"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="17"/>
@@ -14379,7 +14393,9 @@
       <c r="H91" s="17"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -14389,7 +14405,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>984</v>
       </c>
@@ -14402,7 +14418,7 @@
       <c r="H95" s="24"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17"/>
@@ -14413,7 +14429,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="27"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>987</v>
       </c>
@@ -14426,7 +14442,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
         <v>990</v>
       </c>
@@ -14443,7 +14459,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
         <v>211</v>
       </c>
@@ -14472,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -14483,7 +14499,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -14494,7 +14510,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -14505,7 +14521,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -14516,7 +14532,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29" t="s">
         <v>988</v>
       </c>
@@ -14533,7 +14549,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>211</v>
       </c>
@@ -14562,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -14573,7 +14589,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -14584,7 +14600,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -14595,7 +14611,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17"/>
@@ -14606,7 +14622,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="27"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="35" t="s">
         <v>994</v>
       </c>
@@ -14623,7 +14639,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>211</v>
       </c>
@@ -14652,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -14663,7 +14679,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="34"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -14674,7 +14690,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="34"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -14685,7 +14701,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="34"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
@@ -14696,7 +14712,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="27"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="35" t="s">
         <v>997</v>
       </c>
@@ -14713,7 +14729,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
         <v>211</v>
       </c>
@@ -14742,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -14753,7 +14769,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="34"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="33"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -14764,7 +14780,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="34"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -14775,7 +14791,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="34"/>
     </row>
-    <row r="121" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
@@ -14786,7 +14802,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="39"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
@@ -14796,6 +14812,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="16"/>
     </row>
+    <row r="123" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="A110:C110"/>
@@ -14844,10 +14861,10 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I152"/>
+      <selection activeCell="A20" sqref="A20:I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -15220,7 +15237,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
@@ -15231,7 +15248,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>985</v>
       </c>
@@ -15244,7 +15261,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>990</v>
       </c>
@@ -15261,7 +15278,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>211</v>
       </c>
@@ -15290,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -15301,7 +15318,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -15312,7 +15329,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -15323,7 +15340,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -15334,7 +15351,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>988</v>
       </c>
@@ -15351,7 +15368,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>211</v>
       </c>
@@ -15380,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -15391,7 +15408,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -15402,7 +15419,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -15413,7 +15430,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -15424,7 +15441,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>994</v>
       </c>
@@ -15441,7 +15458,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>211</v>
       </c>
@@ -15470,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -15481,7 +15498,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -15492,7 +15509,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -15503,7 +15520,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -15514,7 +15531,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>997</v>
       </c>
@@ -15531,7 +15548,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>211</v>
       </c>
@@ -15560,7 +15577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -15571,7 +15588,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -15582,7 +15599,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -15593,7 +15610,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -15604,7 +15621,7 @@
       <c r="H45" s="38"/>
       <c r="I45" s="39"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
@@ -15614,7 +15631,9 @@
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -15624,7 +15643,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>984</v>
       </c>
@@ -15637,7 +15656,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
@@ -15648,7 +15667,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>986</v>
       </c>
@@ -15661,7 +15680,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>990</v>
       </c>
@@ -15678,7 +15697,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
         <v>211</v>
       </c>
@@ -15707,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -15718,7 +15737,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="34"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -15729,7 +15748,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="34"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -15740,7 +15759,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
@@ -15751,7 +15770,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="27"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>988</v>
       </c>
@@ -15768,7 +15787,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>211</v>
       </c>
@@ -15797,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -15808,7 +15827,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -15819,7 +15838,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -15830,7 +15849,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
@@ -15841,7 +15860,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="27"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>994</v>
       </c>
@@ -15858,7 +15877,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>211</v>
       </c>
@@ -15887,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -15898,7 +15917,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -15909,7 +15928,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -15920,7 +15939,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -15931,7 +15950,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>997</v>
       </c>
@@ -15948,7 +15967,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>211</v>
       </c>
@@ -15977,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -15988,7 +16007,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -15999,7 +16018,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -16010,7 +16029,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
@@ -16021,7 +16040,7 @@
       <c r="H76" s="38"/>
       <c r="I76" s="39"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17"/>
@@ -16031,7 +16050,9 @@
       <c r="H77" s="17"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -16041,7 +16062,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>984</v>
       </c>
@@ -16054,7 +16075,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
@@ -16065,7 +16086,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="27"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>987</v>
       </c>
@@ -16078,7 +16099,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="27"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="29" t="s">
         <v>990</v>
       </c>
@@ -16095,7 +16116,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>211</v>
       </c>
@@ -16124,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -16135,7 +16156,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="34"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -16146,7 +16167,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="34"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -16157,7 +16178,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="16"/>
       <c r="C89" s="17"/>
@@ -16168,7 +16189,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29" t="s">
         <v>988</v>
       </c>
@@ -16185,7 +16206,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>211</v>
       </c>
@@ -16214,7 +16235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -16225,7 +16246,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -16236,7 +16257,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -16247,7 +16268,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -16258,7 +16279,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="35" t="s">
         <v>994</v>
       </c>
@@ -16275,7 +16296,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
         <v>211</v>
       </c>
@@ -16304,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -16315,7 +16336,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -16326,7 +16347,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -16337,7 +16358,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -16348,7 +16369,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="27"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>997</v>
       </c>
@@ -16365,7 +16386,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
         <v>211</v>
       </c>
@@ -16394,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -16405,7 +16426,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -16416,7 +16437,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -16427,7 +16448,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="37"/>
       <c r="C107" s="38"/>
@@ -16495,11 +16516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACE9B05-E70F-CB4F-98FD-3E4150D258C0}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I157"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
@@ -17023,7 +17044,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -17034,7 +17055,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>985</v>
       </c>
@@ -17047,7 +17068,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>990</v>
       </c>
@@ -17064,7 +17085,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="30"/>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>211</v>
       </c>
@@ -17093,7 +17114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -17104,7 +17125,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -17115,7 +17136,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -17126,7 +17147,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
@@ -17137,7 +17158,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>988</v>
       </c>
@@ -17154,7 +17175,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>211</v>
       </c>
@@ -17183,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -17194,7 +17215,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -17205,7 +17226,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -17216,7 +17237,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -17227,7 +17248,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>994</v>
       </c>
@@ -17244,7 +17265,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>211</v>
       </c>
@@ -17273,7 +17294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -17284,7 +17305,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -17295,7 +17316,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -17306,7 +17327,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -17317,7 +17338,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="27"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>997</v>
       </c>
@@ -17334,7 +17355,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>211</v>
       </c>
@@ -17363,7 +17384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -17374,7 +17395,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -17385,7 +17406,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -17396,7 +17417,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -17407,7 +17428,7 @@
       <c r="H50" s="38"/>
       <c r="I50" s="39"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
@@ -17417,13 +17438,13 @@
       <c r="H51" s="17"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
@@ -17433,7 +17454,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>984</v>
       </c>
@@ -17446,7 +17467,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17"/>
@@ -17457,7 +17478,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="27"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>986</v>
       </c>
@@ -17470,7 +17491,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>990</v>
       </c>
@@ -17487,7 +17508,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>211</v>
       </c>
@@ -17516,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -17527,7 +17548,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="34"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -17538,7 +17559,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -17549,7 +17570,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
@@ -17560,7 +17581,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="27"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>988</v>
       </c>
@@ -17577,7 +17598,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>211</v>
       </c>
@@ -17606,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -17617,7 +17638,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -17628,7 +17649,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -17639,7 +17660,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -17650,7 +17671,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="27"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="35" t="s">
         <v>994</v>
       </c>
@@ -17667,7 +17688,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
         <v>211</v>
       </c>
@@ -17696,7 +17717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -17707,7 +17728,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="34"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -17718,7 +17739,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -17729,7 +17750,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17"/>
@@ -17740,7 +17761,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="27"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35" t="s">
         <v>997</v>
       </c>
@@ -17757,7 +17778,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
         <v>211</v>
       </c>
@@ -17786,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -17797,7 +17818,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="34"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -17808,7 +17829,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="34"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -17819,7 +17840,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="34"/>
     </row>
-    <row r="81" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="38"/>
@@ -17830,7 +17851,7 @@
       <c r="H81" s="38"/>
       <c r="I81" s="39"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
@@ -17840,13 +17861,13 @@
       <c r="H82" s="17"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
@@ -17856,7 +17877,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>984</v>
       </c>
@@ -17869,7 +17890,7 @@
       <c r="H86" s="24"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17"/>
@@ -17880,7 +17901,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>987</v>
       </c>
@@ -17893,7 +17914,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="27"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="29" t="s">
         <v>990</v>
       </c>
@@ -17910,7 +17931,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
         <v>211</v>
       </c>
@@ -17939,7 +17960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -17950,7 +17971,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="34"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -17961,7 +17982,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -17972,7 +17993,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -17983,7 +18004,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="27"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="29" t="s">
         <v>988</v>
       </c>
@@ -18000,7 +18021,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
         <v>211</v>
       </c>
@@ -18029,7 +18050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -18040,7 +18061,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="34"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -18051,7 +18072,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -18062,7 +18083,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
@@ -18073,7 +18094,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="27"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
         <v>994</v>
       </c>
@@ -18090,7 +18111,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31" t="s">
         <v>211</v>
       </c>
@@ -18119,7 +18140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -18130,7 +18151,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="34"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -18141,7 +18162,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -18152,7 +18173,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17"/>
@@ -18163,7 +18184,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="35" t="s">
         <v>997</v>
       </c>
@@ -18180,7 +18201,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31" t="s">
         <v>211</v>
       </c>
@@ -18209,7 +18230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -18220,7 +18241,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -18231,7 +18252,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -18242,7 +18263,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="B112" s="37"/>
       <c r="C112" s="38"/>
@@ -18253,7 +18274,7 @@
       <c r="H112" s="38"/>
       <c r="I112" s="39"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
@@ -18442,11 +18463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I155"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -18916,7 +18937,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -18927,7 +18948,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>985</v>
       </c>
@@ -18940,7 +18961,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>990</v>
       </c>
@@ -18957,7 +18978,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>211</v>
       </c>
@@ -18986,7 +19007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -18997,7 +19018,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -19008,7 +19029,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -19019,7 +19040,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
@@ -19030,7 +19051,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>988</v>
       </c>
@@ -19047,7 +19068,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>211</v>
       </c>
@@ -19076,7 +19097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -19087,7 +19108,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -19098,7 +19119,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -19109,7 +19130,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -19120,7 +19141,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>994</v>
       </c>
@@ -19137,7 +19158,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>211</v>
       </c>
@@ -19166,7 +19187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -19177,7 +19198,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -19188,7 +19209,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -19199,7 +19220,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
@@ -19210,7 +19231,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="27"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>997</v>
       </c>
@@ -19227,7 +19248,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>211</v>
       </c>
@@ -19256,7 +19277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -19267,7 +19288,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -19278,7 +19299,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -19289,7 +19310,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
@@ -19300,7 +19321,7 @@
       <c r="H48" s="38"/>
       <c r="I48" s="39"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -19310,7 +19331,9 @@
       <c r="H49" s="17"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -19320,7 +19343,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>984</v>
       </c>
@@ -19333,7 +19356,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
@@ -19344,7 +19367,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>986</v>
       </c>
@@ -19357,7 +19380,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="27"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29" t="s">
         <v>990</v>
       </c>
@@ -19374,7 +19397,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
         <v>211</v>
       </c>
@@ -19403,7 +19426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -19414,7 +19437,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -19425,7 +19448,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="34"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -19436,7 +19459,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="34"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="16"/>
       <c r="C61" s="17"/>
@@ -19447,7 +19470,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="27"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>988</v>
       </c>
@@ -19464,7 +19487,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>211</v>
       </c>
@@ -19493,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -19504,7 +19527,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -19515,7 +19538,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="34"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -19526,7 +19549,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="16"/>
       <c r="C67" s="17"/>
@@ -19537,7 +19560,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>994</v>
       </c>
@@ -19554,7 +19577,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31" t="s">
         <v>211</v>
       </c>
@@ -19583,7 +19606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -19594,7 +19617,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -19605,7 +19628,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -19616,7 +19639,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="34"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -19627,7 +19650,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="27"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>997</v>
       </c>
@@ -19644,7 +19667,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>211</v>
       </c>
@@ -19673,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -19684,7 +19707,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -19695,7 +19718,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -19706,7 +19729,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="34"/>
     </row>
-    <row r="79" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="38"/>
@@ -19717,7 +19740,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="39"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -19727,7 +19750,9 @@
       <c r="H80" s="17"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
@@ -19737,7 +19762,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>984</v>
       </c>
@@ -19750,7 +19775,7 @@
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
@@ -19761,7 +19786,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>987</v>
       </c>
@@ -19774,7 +19799,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="29" t="s">
         <v>990</v>
       </c>
@@ -19791,7 +19816,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>211</v>
       </c>
@@ -19820,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -19831,7 +19856,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -19842,7 +19867,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="34"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -19853,7 +19878,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="34"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -19864,7 +19889,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="27"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="29" t="s">
         <v>988</v>
       </c>
@@ -19881,7 +19906,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
         <v>211</v>
       </c>
@@ -19910,7 +19935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -19921,7 +19946,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="34"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -19932,7 +19957,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="34"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -19943,7 +19968,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="34"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17"/>
@@ -19954,7 +19979,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="27"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="35" t="s">
         <v>994</v>
       </c>
@@ -19971,7 +19996,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31" t="s">
         <v>211</v>
       </c>
@@ -20000,7 +20025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -20011,7 +20036,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -20022,7 +20047,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -20033,7 +20058,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="34"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -20044,7 +20069,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="27"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>997</v>
       </c>
@@ -20061,7 +20086,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31" t="s">
         <v>211</v>
       </c>
@@ -20090,7 +20115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -20101,7 +20126,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -20112,7 +20137,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -20123,7 +20148,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="B110" s="37"/>
       <c r="C110" s="38"/>
@@ -20134,7 +20159,7 @@
       <c r="H110" s="38"/>
       <c r="I110" s="39"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -20191,11 +20216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3376EF-F228-E74F-81E0-C8C21043B0CE}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I154"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
@@ -20665,7 +20690,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -20676,7 +20701,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>985</v>
       </c>
@@ -20689,7 +20714,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>990</v>
       </c>
@@ -20706,7 +20731,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>211</v>
       </c>
@@ -20735,7 +20760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -20746,7 +20771,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -20757,7 +20782,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -20768,7 +20793,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -20779,7 +20804,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>988</v>
       </c>
@@ -20796,7 +20821,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>211</v>
       </c>
@@ -20825,7 +20850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -20836,7 +20861,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -20847,7 +20872,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -20858,7 +20883,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -20869,7 +20894,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>994</v>
       </c>
@@ -20886,7 +20911,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>211</v>
       </c>
@@ -20915,7 +20940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -20926,7 +20951,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -20937,7 +20962,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -20948,7 +20973,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -20959,7 +20984,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>997</v>
       </c>
@@ -20976,7 +21001,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>211</v>
       </c>
@@ -21005,7 +21030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -21016,7 +21041,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -21027,7 +21052,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -21038,7 +21063,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
@@ -21049,7 +21074,7 @@
       <c r="H47" s="38"/>
       <c r="I47" s="39"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
@@ -21059,7 +21084,9 @@
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
@@ -21069,7 +21096,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>984</v>
       </c>
@@ -21082,7 +21109,7 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
@@ -21093,7 +21120,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>986</v>
       </c>
@@ -21106,7 +21133,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>990</v>
       </c>
@@ -21123,7 +21150,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>211</v>
       </c>
@@ -21152,7 +21179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -21163,7 +21190,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -21174,7 +21201,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -21185,7 +21212,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="34"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -21196,7 +21223,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="27"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>988</v>
       </c>
@@ -21213,7 +21240,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>211</v>
       </c>
@@ -21242,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -21253,7 +21280,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -21264,7 +21291,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -21275,7 +21302,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="34"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
@@ -21286,7 +21313,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>994</v>
       </c>
@@ -21303,7 +21330,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
         <v>211</v>
       </c>
@@ -21332,7 +21359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -21343,7 +21370,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -21354,7 +21381,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -21365,7 +21392,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
@@ -21376,7 +21403,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="27"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35" t="s">
         <v>997</v>
       </c>
@@ -21393,7 +21420,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>211</v>
       </c>
@@ -21422,7 +21449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -21433,7 +21460,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -21444,7 +21471,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -21455,7 +21482,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
@@ -21466,7 +21493,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="39"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -21476,7 +21503,9 @@
       <c r="H79" s="17"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
@@ -21486,7 +21515,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>984</v>
       </c>
@@ -21499,7 +21528,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
@@ -21510,7 +21539,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="27"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>987</v>
       </c>
@@ -21523,7 +21552,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29" t="s">
         <v>990</v>
       </c>
@@ -21540,7 +21569,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>211</v>
       </c>
@@ -21569,7 +21598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -21580,7 +21609,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -21591,7 +21620,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -21602,7 +21631,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="34"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="16"/>
       <c r="C91" s="17"/>
@@ -21613,7 +21642,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="27"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
         <v>988</v>
       </c>
@@ -21630,7 +21659,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>211</v>
       </c>
@@ -21659,7 +21688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -21670,7 +21699,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -21681,7 +21710,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="34"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -21692,7 +21721,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="34"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17"/>
@@ -21703,7 +21732,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="35" t="s">
         <v>994</v>
       </c>
@@ -21720,7 +21749,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
         <v>211</v>
       </c>
@@ -21749,7 +21778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -21760,7 +21789,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -21771,7 +21800,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="34"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -21782,7 +21811,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="34"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -21793,7 +21822,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="35" t="s">
         <v>997</v>
       </c>
@@ -21810,7 +21839,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>211</v>
       </c>
@@ -21839,7 +21868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -21850,7 +21879,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -21861,7 +21890,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -21872,7 +21901,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="37"/>
       <c r="C109" s="38"/>
@@ -21883,7 +21912,7 @@
       <c r="H109" s="38"/>
       <c r="I109" s="39"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>

--- a/Security Program Tracking Template.xlsx
+++ b/Security Program Tracking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/msnyder_omnissa_com/Documents/Documents/GitHub/security_maturity_tracker/Security-Maturity-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A90B500-74AC-0A43-9605-9BFB523D1C23}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{482FF75D-DA18-3646-9B45-A2B35A9B0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7764020-7419-D44F-B47C-0EA354CCA561}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="1" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
+    <workbookView xWindow="1060" yWindow="2560" windowWidth="33700" windowHeight="17420" activeTab="12" xr2:uid="{B26B179B-1624-BB4A-B266-612C886FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Compliance &amp; Audit" sheetId="15" r:id="rId9"/>
     <sheet name="SIEM Score Card" sheetId="12" r:id="rId10"/>
     <sheet name="Email Security Score Card" sheetId="13" r:id="rId11"/>
-    <sheet name="Network Score Card" sheetId="14" r:id="rId12"/>
+    <sheet name="Network Sec. Score Card" sheetId="14" r:id="rId12"/>
     <sheet name="EDR" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -4693,7 +4693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7CA0E-FFB4-D348-9897-B581656F7595}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5954,7 +5954,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A28:XFD29"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6463,7 +6463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A836054-FAE1-5F40-868B-4E50E1BBE4D9}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6913,7 +6913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E66AA-AE30-8D42-A85F-0F2DA245F843}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -9213,7 +9213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4D4EF-8AD6-F044-9C90-44FE922B03DE}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A112" sqref="A112:XFD126"/>
     </sheetView>
   </sheetViews>
@@ -11262,7 +11262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A301117-1619-6743-A531-8847B07BB906}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A117" sqref="A117:XFD131"/>
     </sheetView>
   </sheetViews>
@@ -11787,7 +11787,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -11798,7 +11798,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>985</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>990</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>211</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -11868,7 +11868,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -11879,7 +11879,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -11890,7 +11890,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -11901,7 +11901,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>988</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>211</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -11958,7 +11958,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -11969,7 +11969,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -11980,7 +11980,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -11991,7 +11991,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>994</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>211</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -12048,7 +12048,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -12059,7 +12059,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -12070,7 +12070,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -12081,7 +12081,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>997</v>
       </c>
@@ -12098,7 +12098,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>211</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -12138,7 +12138,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -12149,7 +12149,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -12160,7 +12160,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="1:9" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="38"/>
@@ -12171,7 +12171,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="39"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -12181,9 +12181,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
@@ -12193,7 +12193,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>984</v>
       </c>
@@ -12206,7 +12206,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17"/>
@@ -12217,7 +12217,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>986</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="27"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>990</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>211</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -12287,7 +12287,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -12298,7 +12298,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -12309,7 +12309,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
@@ -12320,7 +12320,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="27"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>988</v>
       </c>
@@ -12337,7 +12337,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>211</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -12377,7 +12377,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -12388,7 +12388,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -12399,7 +12399,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -12410,7 +12410,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>994</v>
       </c>
@@ -12427,7 +12427,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>211</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -12467,7 +12467,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -12478,7 +12478,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -12489,7 +12489,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
@@ -12500,7 +12500,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="27"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>997</v>
       </c>
@@ -12517,7 +12517,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>211</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -12557,7 +12557,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="34"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -12568,7 +12568,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="34"/>
     </row>
-    <row r="81" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -12579,7 +12579,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="34"/>
     </row>
-    <row r="82" spans="1:9" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="38"/>
@@ -12590,7 +12590,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="39"/>
     </row>
-    <row r="83" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
@@ -12600,9 +12600,9 @@
       <c r="H83" s="17"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:9" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
@@ -12612,7 +12612,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>984</v>
       </c>
@@ -12625,7 +12625,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
@@ -12636,7 +12636,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="27"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>987</v>
       </c>
@@ -12649,7 +12649,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29" t="s">
         <v>990</v>
       </c>
@@ -12666,7 +12666,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>211</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -12706,7 +12706,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -12717,7 +12717,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -12728,7 +12728,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -12739,7 +12739,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
         <v>988</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
         <v>211</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -12796,7 +12796,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -12807,7 +12807,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="34"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -12818,7 +12818,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -12829,7 +12829,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="27"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>994</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
         <v>211</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -12886,7 +12886,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -12897,7 +12897,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -12908,7 +12908,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17"/>
@@ -12919,7 +12919,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="27"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
         <v>997</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
         <v>211</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -12976,7 +12976,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -12987,7 +12987,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -12998,7 +12998,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="34"/>
     </row>
-    <row r="113" spans="1:9" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="37"/>
       <c r="C113" s="38"/>
@@ -13009,7 +13009,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="39"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -13019,7 +13019,6 @@
       <c r="H114" s="17"/>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:9" s="42" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>1037</v>
@@ -13354,7 +13353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7390EF0B-64A1-0F43-933C-C752CDDB3F1B}">
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A124" sqref="A124:XFD138"/>
     </sheetView>
   </sheetViews>
@@ -16333,7 +16332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35D593A-9331-BC43-A9AE-0BF9519B27F6}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A110" sqref="A110:XFD124"/>
     </sheetView>
   </sheetViews>
@@ -18276,7 +18275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACE9B05-E70F-CB4F-98FD-3E4150D258C0}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A115" sqref="A115:XFD129"/>
     </sheetView>
   </sheetViews>
@@ -20465,7 +20464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68B9F2-DA74-6D42-9733-F6D8FBE198F7}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A113" sqref="A113:XFD127"/>
     </sheetView>
   </sheetViews>
